--- a/between_states/between_states_relative_data/community_participation_between_2022_excel.xlsx
+++ b/between_states/between_states_relative_data/community_participation_between_2022_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>GEOID</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>DC</t>
   </si>
   <si>
     <t>Florida</t>
@@ -1848,7 +1842,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR53"/>
+  <dimension ref="A1:AR52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3243,7 +3237,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s" s="21">
         <v>62</v>
@@ -3255,129 +3249,129 @@
         <v>2022</v>
       </c>
       <c r="E11" s="23">
-        <v>4.76</v>
+        <v>14.39</v>
       </c>
       <c r="F11" s="24">
-        <v>1.10859284225507</v>
+        <v>-1.17734243876693</v>
       </c>
       <c r="G11" s="24">
-        <v>68.51000000000001</v>
+        <v>30.34</v>
       </c>
       <c r="H11" s="24">
-        <v>64.54000000000001</v>
+        <v>48.19</v>
       </c>
       <c r="I11" s="24">
-        <v>1.4140179801449</v>
+        <v>-0.792965594593146</v>
       </c>
       <c r="J11" s="24">
-        <v>73.61</v>
+        <v>36.76</v>
       </c>
       <c r="K11" s="24">
-        <v>40.15</v>
+        <v>48.49</v>
       </c>
       <c r="L11" s="24">
-        <v>-1.32406018339684</v>
+        <v>0.128849508934898</v>
       </c>
       <c r="M11" s="24">
-        <v>27.89</v>
+        <v>52.15</v>
       </c>
       <c r="N11" s="24">
-        <v>55.22</v>
+        <v>46.49</v>
       </c>
       <c r="O11" s="24">
-        <v>0.0180544226456299</v>
+        <v>-1.24001798908727</v>
       </c>
       <c r="P11" s="24">
-        <v>50.3</v>
+        <v>29.29</v>
       </c>
       <c r="Q11" s="24">
-        <v>28.2</v>
+        <v>2.1</v>
       </c>
       <c r="R11" s="24">
-        <v>3</v>
+        <v>-0.322350564739393</v>
       </c>
       <c r="S11" s="24">
-        <v>100</v>
+        <v>44.62</v>
       </c>
       <c r="T11" s="24">
-        <v>29</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="U11" s="24">
-        <v>-3</v>
+        <v>0.169884969407134</v>
       </c>
       <c r="V11" s="24">
-        <v>0</v>
+        <v>52.84</v>
       </c>
       <c r="W11" s="24">
-        <v>18.8</v>
+        <v>17.2</v>
       </c>
       <c r="X11" s="24">
-        <v>-0.444427981910088</v>
+        <v>-0.0922084224149905</v>
       </c>
       <c r="Y11" s="24">
-        <v>42.59</v>
+        <v>48.46</v>
       </c>
       <c r="Z11" s="24">
-        <v>29.3</v>
+        <v>32.8</v>
       </c>
       <c r="AA11" s="24">
-        <v>-1.23409241280081</v>
+        <v>-0.380534834223068</v>
       </c>
       <c r="AB11" s="24">
-        <v>29.39</v>
+        <v>43.65</v>
       </c>
       <c r="AC11" s="24">
-        <v>21.5</v>
+        <v>28.8</v>
       </c>
       <c r="AD11" s="24">
-        <v>-1.88135756945363</v>
+        <v>-0.124848776930441</v>
       </c>
       <c r="AE11" s="24">
-        <v>18.58</v>
+        <v>47.92</v>
       </c>
       <c r="AF11" s="24">
-        <v>30.4</v>
+        <v>21.3</v>
       </c>
       <c r="AG11" s="24">
-        <v>2.99677078375607</v>
+        <v>0.484005573384802</v>
       </c>
       <c r="AH11" s="24">
-        <v>100.05</v>
+        <v>58.08</v>
       </c>
       <c r="AI11" s="24">
-        <v>66.144575183771</v>
+        <v>72.4406610479051</v>
       </c>
       <c r="AJ11" s="24">
-        <v>-0.403484140214561</v>
+        <v>0.856425383727603</v>
       </c>
       <c r="AK11" s="24">
-        <v>43.26</v>
+        <v>64.3</v>
       </c>
       <c r="AL11" s="24">
-        <v>81.21120029091669</v>
+        <v>86.19716428817151</v>
       </c>
       <c r="AM11" s="24">
-        <v>-0.816693518230693</v>
+        <v>0.998485703167738</v>
       </c>
       <c r="AN11" s="24">
-        <v>36.36</v>
+        <v>66.67</v>
       </c>
       <c r="AO11" s="24">
-        <v>87.5919802186672</v>
+        <v>93.1747610434273</v>
       </c>
       <c r="AP11" s="24">
-        <v>-2.0051992156838</v>
+        <v>0.5977206190295991</v>
       </c>
       <c r="AQ11" s="24">
-        <v>16.51</v>
+        <v>59.98</v>
       </c>
       <c r="AR11" s="24">
-        <v>46.7</v>
+        <v>48.85</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="21">
         <v>64</v>
@@ -3389,129 +3383,129 @@
         <v>2022</v>
       </c>
       <c r="E12" s="23">
-        <v>14.39</v>
+        <v>16.87</v>
       </c>
       <c r="F12" s="24">
-        <v>-1.17734243876693</v>
+        <v>-1.76603605215577</v>
       </c>
       <c r="G12" s="24">
-        <v>30.34</v>
+        <v>20.51</v>
       </c>
       <c r="H12" s="24">
-        <v>48.19</v>
+        <v>46.62</v>
       </c>
       <c r="I12" s="24">
-        <v>-0.792965594593146</v>
+        <v>-1.00489001124995</v>
       </c>
       <c r="J12" s="24">
-        <v>36.76</v>
+        <v>33.22</v>
       </c>
       <c r="K12" s="24">
-        <v>48.49</v>
+        <v>48.95</v>
       </c>
       <c r="L12" s="24">
-        <v>0.128849508934898</v>
+        <v>0.208986014746961</v>
       </c>
       <c r="M12" s="24">
-        <v>52.15</v>
+        <v>53.49</v>
       </c>
       <c r="N12" s="24">
-        <v>46.49</v>
+        <v>51.25</v>
       </c>
       <c r="O12" s="24">
-        <v>-1.24001798908727</v>
+        <v>-0.554058690135538</v>
       </c>
       <c r="P12" s="24">
-        <v>29.29</v>
+        <v>40.75</v>
       </c>
       <c r="Q12" s="24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R12" s="24">
-        <v>-0.322350564739393</v>
+        <v>-0.301413579529604</v>
       </c>
       <c r="S12" s="24">
-        <v>44.62</v>
+        <v>44.97</v>
       </c>
       <c r="T12" s="24">
-        <v>69.59999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="U12" s="24">
-        <v>0.169884969407134</v>
+        <v>0.312392792665209</v>
       </c>
       <c r="V12" s="24">
-        <v>52.84</v>
+        <v>55.22</v>
       </c>
       <c r="W12" s="24">
-        <v>17.2</v>
+        <v>19.2</v>
       </c>
       <c r="X12" s="24">
-        <v>-0.0922084224149905</v>
+        <v>-0.532482871783862</v>
       </c>
       <c r="Y12" s="24">
-        <v>48.46</v>
+        <v>41.13</v>
       </c>
       <c r="Z12" s="24">
-        <v>32.8</v>
+        <v>34</v>
       </c>
       <c r="AA12" s="24">
-        <v>-0.380534834223068</v>
+        <v>-0.08788652156784151</v>
       </c>
       <c r="AB12" s="24">
-        <v>43.65</v>
+        <v>48.53</v>
       </c>
       <c r="AC12" s="24">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="AD12" s="24">
-        <v>-0.124848776930441</v>
+        <v>-0.317342891179557</v>
       </c>
       <c r="AE12" s="24">
-        <v>47.92</v>
+        <v>44.7</v>
       </c>
       <c r="AF12" s="24">
-        <v>21.3</v>
+        <v>18.9</v>
       </c>
       <c r="AG12" s="24">
-        <v>0.484005573384802</v>
+        <v>-0.178701734844983</v>
       </c>
       <c r="AH12" s="24">
-        <v>58.08</v>
+        <v>47.02</v>
       </c>
       <c r="AI12" s="24">
-        <v>72.4406610479051</v>
+        <v>69.8677059683295</v>
       </c>
       <c r="AJ12" s="24">
-        <v>0.856425383727603</v>
+        <v>0.341551431976234</v>
       </c>
       <c r="AK12" s="24">
-        <v>64.3</v>
+        <v>55.7</v>
       </c>
       <c r="AL12" s="24">
-        <v>86.19716428817151</v>
+        <v>84.971012348291</v>
       </c>
       <c r="AM12" s="24">
-        <v>0.998485703167738</v>
+        <v>0.552095491611076</v>
       </c>
       <c r="AN12" s="24">
-        <v>66.67</v>
+        <v>59.22</v>
       </c>
       <c r="AO12" s="24">
-        <v>93.1747610434273</v>
+        <v>93.9207204533721</v>
       </c>
       <c r="AP12" s="24">
-        <v>0.5977206190295991</v>
+        <v>0.945517282553439</v>
       </c>
       <c r="AQ12" s="24">
-        <v>59.98</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="AR12" s="24">
-        <v>48.85</v>
+        <v>46.94</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s" s="21">
         <v>66</v>
@@ -3523,129 +3517,129 @@
         <v>2022</v>
       </c>
       <c r="E13" s="23">
-        <v>16.87</v>
+        <v>5.35</v>
       </c>
       <c r="F13" s="24">
-        <v>-1.76603605215577</v>
+        <v>0.9685407326182079</v>
       </c>
       <c r="G13" s="24">
-        <v>20.51</v>
+        <v>66.17</v>
       </c>
       <c r="H13" s="24">
-        <v>46.62</v>
+        <v>50.47</v>
       </c>
       <c r="I13" s="24">
-        <v>-1.00489001124995</v>
+        <v>-0.485202747473712</v>
       </c>
       <c r="J13" s="24">
-        <v>33.22</v>
+        <v>41.9</v>
       </c>
       <c r="K13" s="24">
-        <v>48.95</v>
+        <v>57.83</v>
       </c>
       <c r="L13" s="24">
-        <v>0.208986014746961</v>
+        <v>1.75596899651025</v>
       </c>
       <c r="M13" s="24">
-        <v>53.49</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="N13" s="24">
-        <v>51.25</v>
+        <v>65.72</v>
       </c>
       <c r="O13" s="24">
-        <v>-0.554058690135538</v>
+        <v>1.53119993503915</v>
       </c>
       <c r="P13" s="24">
-        <v>40.75</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="Q13" s="24">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="R13" s="24">
-        <v>-0.301413579529604</v>
+        <v>0.724498695750056</v>
       </c>
       <c r="S13" s="24">
-        <v>44.97</v>
+        <v>62.1</v>
       </c>
       <c r="T13" s="24">
-        <v>70.7</v>
+        <v>60.8</v>
       </c>
       <c r="U13" s="24">
-        <v>0.312392792665209</v>
+        <v>-0.9701776166574509</v>
       </c>
       <c r="V13" s="24">
-        <v>55.22</v>
+        <v>33.8</v>
       </c>
       <c r="W13" s="24">
-        <v>19.2</v>
+        <v>13.7</v>
       </c>
       <c r="X13" s="24">
-        <v>-0.532482871783862</v>
+        <v>0.678271863980535</v>
       </c>
       <c r="Y13" s="24">
-        <v>41.13</v>
+        <v>61.3</v>
       </c>
       <c r="Z13" s="24">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="AA13" s="24">
-        <v>-0.08788652156784151</v>
+        <v>-0.112273880955777</v>
       </c>
       <c r="AB13" s="24">
-        <v>48.53</v>
+        <v>48.13</v>
       </c>
       <c r="AC13" s="24">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="AD13" s="24">
-        <v>-0.317342891179557</v>
+        <v>-0.052663484087022</v>
       </c>
       <c r="AE13" s="24">
-        <v>44.7</v>
+        <v>49.12</v>
       </c>
       <c r="AF13" s="24">
-        <v>18.9</v>
+        <v>23.3</v>
       </c>
       <c r="AG13" s="24">
-        <v>-0.178701734844983</v>
+        <v>1.03626166357629</v>
       </c>
       <c r="AH13" s="24">
-        <v>47.02</v>
+        <v>67.31</v>
       </c>
       <c r="AI13" s="24">
-        <v>69.8677059683295</v>
+        <v>67.9829135748255</v>
       </c>
       <c r="AJ13" s="24">
-        <v>0.341551431976234</v>
+        <v>-0.0356143085288034</v>
       </c>
       <c r="AK13" s="24">
-        <v>55.7</v>
+        <v>49.41</v>
       </c>
       <c r="AL13" s="24">
-        <v>84.971012348291</v>
+        <v>83.61769123671991</v>
       </c>
       <c r="AM13" s="24">
-        <v>0.552095491611076</v>
+        <v>0.0594083476693644</v>
       </c>
       <c r="AN13" s="24">
-        <v>59.22</v>
+        <v>50.99</v>
       </c>
       <c r="AO13" s="24">
-        <v>93.9207204533721</v>
+        <v>91.4387613670938</v>
       </c>
       <c r="AP13" s="24">
-        <v>0.945517282553439</v>
+        <v>-0.211673145909876</v>
       </c>
       <c r="AQ13" s="24">
-        <v>65.79000000000001</v>
+        <v>46.47</v>
       </c>
       <c r="AR13" s="24">
-        <v>46.94</v>
+        <v>56.28</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s" s="21">
         <v>68</v>
@@ -3657,129 +3651,129 @@
         <v>2022</v>
       </c>
       <c r="E14" s="23">
-        <v>5.35</v>
+        <v>12.76</v>
       </c>
       <c r="F14" s="24">
-        <v>0.9685407326182079</v>
+        <v>-0.790418813837971</v>
       </c>
       <c r="G14" s="24">
-        <v>66.17</v>
+        <v>36.8</v>
       </c>
       <c r="H14" s="24">
-        <v>50.47</v>
+        <v>48.44</v>
       </c>
       <c r="I14" s="24">
-        <v>-0.485202747473712</v>
+        <v>-0.75921966837391</v>
       </c>
       <c r="J14" s="24">
-        <v>41.9</v>
+        <v>37.32</v>
       </c>
       <c r="K14" s="24">
-        <v>57.83</v>
+        <v>51.01</v>
       </c>
       <c r="L14" s="24">
-        <v>1.75596899651025</v>
+        <v>0.567858192948805</v>
       </c>
       <c r="M14" s="24">
-        <v>79.31999999999999</v>
+        <v>59.48</v>
       </c>
       <c r="N14" s="24">
-        <v>65.72</v>
+        <v>57.86</v>
       </c>
       <c r="O14" s="24">
-        <v>1.53119993503915</v>
+        <v>0.398502437190286</v>
       </c>
       <c r="P14" s="24">
-        <v>75.56999999999999</v>
+        <v>56.65</v>
       </c>
       <c r="Q14" s="24">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="R14" s="24">
-        <v>0.724498695750056</v>
+        <v>-0.552657402047071</v>
       </c>
       <c r="S14" s="24">
-        <v>62.1</v>
+        <v>40.77</v>
       </c>
       <c r="T14" s="24">
-        <v>60.8</v>
+        <v>71.3</v>
       </c>
       <c r="U14" s="24">
-        <v>-0.9701776166574509</v>
+        <v>0.390124332624157</v>
       </c>
       <c r="V14" s="24">
-        <v>33.8</v>
+        <v>56.52</v>
       </c>
       <c r="W14" s="24">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="X14" s="24">
-        <v>0.678271863980535</v>
+        <v>0.7883404763227529</v>
       </c>
       <c r="Y14" s="24">
-        <v>61.3</v>
+        <v>63.14</v>
       </c>
       <c r="Z14" s="24">
-        <v>33.9</v>
+        <v>32.4</v>
       </c>
       <c r="AA14" s="24">
-        <v>-0.112273880955777</v>
+        <v>-0.47808427177481</v>
       </c>
       <c r="AB14" s="24">
-        <v>48.13</v>
+        <v>42.02</v>
       </c>
       <c r="AC14" s="24">
-        <v>29.1</v>
+        <v>35.1</v>
       </c>
       <c r="AD14" s="24">
-        <v>-0.052663484087022</v>
+        <v>1.39104237278135</v>
       </c>
       <c r="AE14" s="24">
-        <v>49.12</v>
+        <v>73.23</v>
       </c>
       <c r="AF14" s="24">
-        <v>23.3</v>
+        <v>19.3</v>
       </c>
       <c r="AG14" s="24">
-        <v>1.03626166357629</v>
+        <v>-0.0682505168066851</v>
       </c>
       <c r="AH14" s="24">
-        <v>67.31</v>
+        <v>48.86</v>
       </c>
       <c r="AI14" s="24">
-        <v>67.9829135748255</v>
+        <v>74.360623228444</v>
       </c>
       <c r="AJ14" s="24">
-        <v>-0.0356143085288034</v>
+        <v>1.24062894909661</v>
       </c>
       <c r="AK14" s="24">
-        <v>49.41</v>
+        <v>70.72</v>
       </c>
       <c r="AL14" s="24">
-        <v>83.61769123671991</v>
+        <v>86.17854050733411</v>
       </c>
       <c r="AM14" s="24">
-        <v>0.0594083476693644</v>
+        <v>0.991705569974129</v>
       </c>
       <c r="AN14" s="24">
-        <v>50.99</v>
+        <v>66.56</v>
       </c>
       <c r="AO14" s="24">
-        <v>91.4387613670938</v>
+        <v>92.5479008598887</v>
       </c>
       <c r="AP14" s="24">
-        <v>-0.211673145909876</v>
+        <v>0.305452866355499</v>
       </c>
       <c r="AQ14" s="24">
-        <v>46.47</v>
+        <v>55.1</v>
       </c>
       <c r="AR14" s="24">
-        <v>56.28</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="21">
         <v>70</v>
@@ -3791,129 +3785,129 @@
         <v>2022</v>
       </c>
       <c r="E15" s="23">
-        <v>12.76</v>
+        <v>7.76</v>
       </c>
       <c r="F15" s="24">
-        <v>-0.790418813837971</v>
+        <v>0.396463471220179</v>
       </c>
       <c r="G15" s="24">
-        <v>36.8</v>
+        <v>56.62</v>
       </c>
       <c r="H15" s="24">
-        <v>48.44</v>
+        <v>51.9</v>
       </c>
       <c r="I15" s="24">
-        <v>-0.75921966837391</v>
+        <v>-0.292176049499681</v>
       </c>
       <c r="J15" s="24">
-        <v>37.32</v>
+        <v>45.12</v>
       </c>
       <c r="K15" s="24">
-        <v>51.01</v>
+        <v>49.17</v>
       </c>
       <c r="L15" s="24">
-        <v>0.567858192948805</v>
+        <v>0.247312169700556</v>
       </c>
       <c r="M15" s="24">
-        <v>59.48</v>
+        <v>54.13</v>
       </c>
       <c r="N15" s="24">
-        <v>57.86</v>
+        <v>54.58</v>
       </c>
       <c r="O15" s="24">
-        <v>0.398502437190286</v>
+        <v>-0.0741753990621656</v>
       </c>
       <c r="P15" s="24">
-        <v>56.65</v>
+        <v>48.76</v>
       </c>
       <c r="Q15" s="24">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="R15" s="24">
-        <v>-0.552657402047071</v>
+        <v>0.891994577428368</v>
       </c>
       <c r="S15" s="24">
-        <v>40.77</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="T15" s="24">
-        <v>71.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U15" s="24">
-        <v>0.390124332624157</v>
+        <v>-0.503788376903756</v>
       </c>
       <c r="V15" s="24">
-        <v>56.52</v>
+        <v>41.59</v>
       </c>
       <c r="W15" s="24">
-        <v>13.2</v>
+        <v>17</v>
       </c>
       <c r="X15" s="24">
-        <v>0.7883404763227529</v>
+        <v>-0.0481809774781034</v>
       </c>
       <c r="Y15" s="24">
-        <v>63.14</v>
+        <v>49.2</v>
       </c>
       <c r="Z15" s="24">
-        <v>32.4</v>
+        <v>33.8</v>
       </c>
       <c r="AA15" s="24">
-        <v>-0.47808427177481</v>
+        <v>-0.136661240343713</v>
       </c>
       <c r="AB15" s="24">
-        <v>42.02</v>
+        <v>47.72</v>
       </c>
       <c r="AC15" s="24">
-        <v>35.1</v>
+        <v>29.4</v>
       </c>
       <c r="AD15" s="24">
-        <v>1.39104237278135</v>
+        <v>0.0195218087563959</v>
       </c>
       <c r="AE15" s="24">
-        <v>73.23</v>
+        <v>50.33</v>
       </c>
       <c r="AF15" s="24">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="AG15" s="24">
-        <v>-0.0682505168066851</v>
+        <v>0.0974263102507605</v>
       </c>
       <c r="AH15" s="24">
-        <v>48.86</v>
+        <v>51.63</v>
       </c>
       <c r="AI15" s="24">
-        <v>74.360623228444</v>
+        <v>66.4483075661272</v>
       </c>
       <c r="AJ15" s="24">
-        <v>1.24062894909661</v>
+        <v>-0.342704263713805</v>
       </c>
       <c r="AK15" s="24">
-        <v>70.72</v>
+        <v>44.28</v>
       </c>
       <c r="AL15" s="24">
-        <v>86.17854050733411</v>
+        <v>83.0367748350447</v>
       </c>
       <c r="AM15" s="24">
-        <v>0.991705569974129</v>
+        <v>-0.152078815549415</v>
       </c>
       <c r="AN15" s="24">
-        <v>66.56</v>
+        <v>47.46</v>
       </c>
       <c r="AO15" s="24">
-        <v>92.5479008598887</v>
+        <v>91.3737160747298</v>
       </c>
       <c r="AP15" s="24">
-        <v>0.305452866355499</v>
+        <v>-0.241999910825687</v>
       </c>
       <c r="AQ15" s="24">
-        <v>55.1</v>
+        <v>45.96</v>
       </c>
       <c r="AR15" s="24">
-        <v>54.4</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s" s="21">
         <v>72</v>
@@ -3925,129 +3919,129 @@
         <v>2022</v>
       </c>
       <c r="E16" s="23">
-        <v>7.76</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F16" s="24">
-        <v>0.396463471220179</v>
+        <v>0.246916303302852</v>
       </c>
       <c r="G16" s="24">
-        <v>56.62</v>
+        <v>54.12</v>
       </c>
       <c r="H16" s="24">
-        <v>51.9</v>
+        <v>54.43</v>
       </c>
       <c r="I16" s="24">
-        <v>-0.292176049499681</v>
+        <v>0.0493327238389885</v>
       </c>
       <c r="J16" s="24">
-        <v>45.12</v>
+        <v>50.82</v>
       </c>
       <c r="K16" s="24">
-        <v>49.17</v>
+        <v>47.37</v>
       </c>
       <c r="L16" s="24">
-        <v>0.247312169700556</v>
+        <v>-0.0662654617379502</v>
       </c>
       <c r="M16" s="24">
-        <v>54.13</v>
+        <v>48.89</v>
       </c>
       <c r="N16" s="24">
-        <v>54.58</v>
+        <v>56.43</v>
       </c>
       <c r="O16" s="24">
-        <v>-0.0741753990621656</v>
+        <v>0.192426429311931</v>
       </c>
       <c r="P16" s="24">
-        <v>48.76</v>
+        <v>53.21</v>
       </c>
       <c r="Q16" s="24">
-        <v>7.9</v>
+        <v>1.5</v>
       </c>
       <c r="R16" s="24">
-        <v>0.891994577428368</v>
+        <v>-0.447972475998126</v>
       </c>
       <c r="S16" s="24">
-        <v>64.90000000000001</v>
+        <v>42.52</v>
       </c>
       <c r="T16" s="24">
-        <v>64.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="U16" s="24">
-        <v>-0.503788376903756</v>
+        <v>0.791737289078728</v>
       </c>
       <c r="V16" s="24">
-        <v>41.59</v>
+        <v>63.22</v>
       </c>
       <c r="W16" s="24">
-        <v>17</v>
+        <v>17.7</v>
       </c>
       <c r="X16" s="24">
-        <v>-0.0481809774781034</v>
+        <v>-0.202277034757208</v>
       </c>
       <c r="Y16" s="24">
-        <v>49.2</v>
+        <v>46.63</v>
       </c>
       <c r="Z16" s="24">
-        <v>33.8</v>
+        <v>40.4</v>
       </c>
       <c r="AA16" s="24">
-        <v>-0.136661240343713</v>
+        <v>1.47290447926003</v>
       </c>
       <c r="AB16" s="24">
-        <v>47.72</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="AC16" s="24">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="AD16" s="24">
-        <v>0.0195218087563959</v>
+        <v>-0.461713476866395</v>
       </c>
       <c r="AE16" s="24">
-        <v>50.33</v>
+        <v>42.29</v>
       </c>
       <c r="AF16" s="24">
-        <v>19.9</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" s="24">
-        <v>0.0974263102507605</v>
+        <v>-1.39366513326626</v>
       </c>
       <c r="AH16" s="24">
-        <v>51.63</v>
+        <v>26.73</v>
       </c>
       <c r="AI16" s="24">
-        <v>66.4483075661272</v>
+        <v>65.1568892767641</v>
       </c>
       <c r="AJ16" s="24">
-        <v>-0.342704263713805</v>
+        <v>-0.601129932815672</v>
       </c>
       <c r="AK16" s="24">
-        <v>44.28</v>
+        <v>39.96</v>
       </c>
       <c r="AL16" s="24">
-        <v>83.0367748350447</v>
+        <v>83.33987205457299</v>
       </c>
       <c r="AM16" s="24">
-        <v>-0.152078815549415</v>
+        <v>-0.0417339002523289</v>
       </c>
       <c r="AN16" s="24">
-        <v>47.46</v>
+        <v>49.3</v>
       </c>
       <c r="AO16" s="24">
-        <v>91.3737160747298</v>
+        <v>91.7475852886558</v>
       </c>
       <c r="AP16" s="24">
-        <v>-0.241999910825687</v>
+        <v>-0.06768685375551151</v>
       </c>
       <c r="AQ16" s="24">
-        <v>45.96</v>
+        <v>48.87</v>
       </c>
       <c r="AR16" s="24">
-        <v>49.82</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s" s="21">
         <v>74</v>
@@ -4059,129 +4053,129 @@
         <v>2022</v>
       </c>
       <c r="E17" s="23">
-        <v>8.390000000000001</v>
+        <v>5.34</v>
       </c>
       <c r="F17" s="24">
-        <v>0.246916303302852</v>
+        <v>0.970914497188324</v>
       </c>
       <c r="G17" s="24">
-        <v>54.12</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="H17" s="24">
-        <v>54.43</v>
+        <v>56.44</v>
       </c>
       <c r="I17" s="24">
-        <v>0.0493327238389885</v>
+        <v>0.320649970641647</v>
       </c>
       <c r="J17" s="24">
-        <v>50.82</v>
+        <v>55.35</v>
       </c>
       <c r="K17" s="24">
-        <v>47.37</v>
+        <v>49.17</v>
       </c>
       <c r="L17" s="24">
-        <v>-0.0662654617379502</v>
+        <v>0.247312169700556</v>
       </c>
       <c r="M17" s="24">
-        <v>48.89</v>
+        <v>54.13</v>
       </c>
       <c r="N17" s="24">
-        <v>56.43</v>
+        <v>60.82</v>
       </c>
       <c r="O17" s="24">
-        <v>0.192426429311931</v>
+        <v>0.82506536258884</v>
       </c>
       <c r="P17" s="24">
-        <v>53.21</v>
+        <v>63.78</v>
       </c>
       <c r="Q17" s="24">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="R17" s="24">
-        <v>-0.447972475998126</v>
+        <v>-0.406098505578548</v>
       </c>
       <c r="S17" s="24">
-        <v>42.52</v>
+        <v>43.22</v>
       </c>
       <c r="T17" s="24">
-        <v>74.40000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="U17" s="24">
-        <v>0.791737289078728</v>
+        <v>0.312392792665209</v>
       </c>
       <c r="V17" s="24">
-        <v>63.22</v>
+        <v>55.22</v>
       </c>
       <c r="W17" s="24">
-        <v>17.7</v>
+        <v>12.3</v>
       </c>
       <c r="X17" s="24">
-        <v>-0.202277034757208</v>
+        <v>0.986463978538746</v>
       </c>
       <c r="Y17" s="24">
-        <v>46.63</v>
+        <v>66.44</v>
       </c>
       <c r="Z17" s="24">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="AA17" s="24">
-        <v>1.47290447926003</v>
+        <v>1.49729183864797</v>
       </c>
       <c r="AB17" s="24">
-        <v>74.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="AC17" s="24">
-        <v>27.4</v>
+        <v>30.3</v>
       </c>
       <c r="AD17" s="24">
-        <v>-0.461713476866395</v>
+        <v>0.236077687286652</v>
       </c>
       <c r="AE17" s="24">
-        <v>42.29</v>
+        <v>53.94</v>
       </c>
       <c r="AF17" s="24">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" s="24">
-        <v>-1.39366513326626</v>
+        <v>-0.703345020526896</v>
       </c>
       <c r="AH17" s="24">
-        <v>26.73</v>
+        <v>38.25</v>
       </c>
       <c r="AI17" s="24">
-        <v>65.1568892767641</v>
+        <v>64.5938612141196</v>
       </c>
       <c r="AJ17" s="24">
-        <v>-0.601129932815672</v>
+        <v>-0.7137974589073089</v>
       </c>
       <c r="AK17" s="24">
-        <v>39.96</v>
+        <v>38.08</v>
       </c>
       <c r="AL17" s="24">
-        <v>83.33987205457299</v>
+        <v>80.1201696292629</v>
       </c>
       <c r="AM17" s="24">
-        <v>-0.0417339002523289</v>
+        <v>-1.21389177077181</v>
       </c>
       <c r="AN17" s="24">
-        <v>49.3</v>
+        <v>29.73</v>
       </c>
       <c r="AO17" s="24">
-        <v>91.7475852886558</v>
+        <v>88.4467079137322</v>
       </c>
       <c r="AP17" s="24">
-        <v>-0.06768685375551151</v>
+        <v>-1.60669034696797</v>
       </c>
       <c r="AQ17" s="24">
-        <v>48.87</v>
+        <v>23.17</v>
       </c>
       <c r="AR17" s="24">
-        <v>49.32</v>
+        <v>50.96</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s" s="21">
         <v>76</v>
@@ -4193,129 +4187,129 @@
         <v>2022</v>
       </c>
       <c r="E18" s="23">
-        <v>5.34</v>
+        <v>14.73</v>
       </c>
       <c r="F18" s="24">
-        <v>0.970914497188324</v>
+        <v>-1.25805043415088</v>
       </c>
       <c r="G18" s="24">
-        <v>66.20999999999999</v>
+        <v>28.99</v>
       </c>
       <c r="H18" s="24">
-        <v>56.44</v>
+        <v>43.02</v>
       </c>
       <c r="I18" s="24">
-        <v>0.320649970641647</v>
+        <v>-1.49083134880695</v>
       </c>
       <c r="J18" s="24">
-        <v>55.35</v>
+        <v>25.1</v>
       </c>
       <c r="K18" s="24">
-        <v>49.17</v>
+        <v>53.79</v>
       </c>
       <c r="L18" s="24">
-        <v>0.247312169700556</v>
+        <v>1.05216142372605</v>
       </c>
       <c r="M18" s="24">
-        <v>54.13</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="N18" s="24">
-        <v>60.82</v>
+        <v>61.12</v>
       </c>
       <c r="O18" s="24">
-        <v>0.82506536258884</v>
+        <v>0.868298091514369</v>
       </c>
       <c r="P18" s="24">
-        <v>63.78</v>
+        <v>64.5</v>
       </c>
       <c r="Q18" s="24">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R18" s="24">
-        <v>-0.406098505578548</v>
+        <v>-0.427035490788337</v>
       </c>
       <c r="S18" s="24">
-        <v>43.22</v>
+        <v>42.87</v>
       </c>
       <c r="T18" s="24">
-        <v>70.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="U18" s="24">
-        <v>0.312392792665209</v>
+        <v>0.364213819304507</v>
       </c>
       <c r="V18" s="24">
-        <v>55.22</v>
+        <v>56.08</v>
       </c>
       <c r="W18" s="24">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="X18" s="24">
-        <v>0.986463978538746</v>
+        <v>0.876395366196528</v>
       </c>
       <c r="Y18" s="24">
-        <v>66.44</v>
+        <v>64.61</v>
       </c>
       <c r="Z18" s="24">
-        <v>40.5</v>
+        <v>34.7</v>
       </c>
       <c r="AA18" s="24">
-        <v>1.49729183864797</v>
+        <v>0.0828249941477078</v>
       </c>
       <c r="AB18" s="24">
-        <v>75</v>
+        <v>51.38</v>
       </c>
       <c r="AC18" s="24">
-        <v>30.3</v>
+        <v>32.3</v>
       </c>
       <c r="AD18" s="24">
-        <v>0.236077687286652</v>
+        <v>0.717312972909442</v>
       </c>
       <c r="AE18" s="24">
-        <v>53.94</v>
+        <v>61.98</v>
       </c>
       <c r="AF18" s="24">
-        <v>17</v>
+        <v>20.2</v>
       </c>
       <c r="AG18" s="24">
-        <v>-0.703345020526896</v>
+        <v>0.180264723779484</v>
       </c>
       <c r="AH18" s="24">
-        <v>38.25</v>
+        <v>53.01</v>
       </c>
       <c r="AI18" s="24">
-        <v>64.5938612141196</v>
+        <v>67.2835253200696</v>
       </c>
       <c r="AJ18" s="24">
-        <v>-0.7137974589073089</v>
+        <v>-0.175568867935283</v>
       </c>
       <c r="AK18" s="24">
-        <v>38.08</v>
+        <v>47.07</v>
       </c>
       <c r="AL18" s="24">
-        <v>80.1201696292629</v>
+        <v>82.3792984658364</v>
       </c>
       <c r="AM18" s="24">
-        <v>-1.21389177077181</v>
+        <v>-0.39143823423043</v>
       </c>
       <c r="AN18" s="24">
-        <v>29.73</v>
+        <v>43.46</v>
       </c>
       <c r="AO18" s="24">
-        <v>88.4467079137322</v>
+        <v>90.513090662940</v>
       </c>
       <c r="AP18" s="24">
-        <v>-1.60669034696797</v>
+        <v>-0.643258535321718</v>
       </c>
       <c r="AQ18" s="24">
-        <v>23.17</v>
+        <v>39.26</v>
       </c>
       <c r="AR18" s="24">
-        <v>50.96</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="21">
         <v>78</v>
@@ -4327,129 +4321,129 @@
         <v>2022</v>
       </c>
       <c r="E19" s="23">
-        <v>14.73</v>
+        <v>5.24</v>
       </c>
       <c r="F19" s="24">
-        <v>-1.25805043415088</v>
+        <v>0.994652142889487</v>
       </c>
       <c r="G19" s="24">
-        <v>28.99</v>
+        <v>66.61</v>
       </c>
       <c r="H19" s="24">
-        <v>43.02</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="I19" s="24">
-        <v>-1.49083134880695</v>
+        <v>1.63134174499678</v>
       </c>
       <c r="J19" s="24">
-        <v>25.1</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="K19" s="24">
-        <v>53.79</v>
+        <v>39.8</v>
       </c>
       <c r="L19" s="24">
-        <v>1.05216142372605</v>
+        <v>-1.38503361173211</v>
       </c>
       <c r="M19" s="24">
-        <v>67.56999999999999</v>
+        <v>26.87</v>
       </c>
       <c r="N19" s="24">
-        <v>61.12</v>
+        <v>55.27</v>
       </c>
       <c r="O19" s="24">
-        <v>0.868298091514369</v>
+        <v>0.025259877466552</v>
       </c>
       <c r="P19" s="24">
-        <v>64.5</v>
+        <v>50.42</v>
       </c>
       <c r="Q19" s="24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R19" s="24">
-        <v>-0.427035490788337</v>
+        <v>-0.447972475998126</v>
       </c>
       <c r="S19" s="24">
-        <v>42.87</v>
+        <v>42.52</v>
       </c>
       <c r="T19" s="24">
-        <v>71.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="U19" s="24">
-        <v>0.364213819304507</v>
+        <v>0.649229465820653</v>
       </c>
       <c r="V19" s="24">
-        <v>56.08</v>
+        <v>60.84</v>
       </c>
       <c r="W19" s="24">
-        <v>12.8</v>
+        <v>21.8</v>
       </c>
       <c r="X19" s="24">
-        <v>0.876395366196528</v>
+        <v>-1.1048396559634</v>
       </c>
       <c r="Y19" s="24">
-        <v>64.61</v>
+        <v>31.59</v>
       </c>
       <c r="Z19" s="24">
-        <v>34.7</v>
+        <v>38.8</v>
       </c>
       <c r="AA19" s="24">
-        <v>0.0828249941477078</v>
+        <v>1.08270672905306</v>
       </c>
       <c r="AB19" s="24">
-        <v>51.38</v>
+        <v>68.08</v>
       </c>
       <c r="AC19" s="24">
-        <v>32.3</v>
+        <v>26.4</v>
       </c>
       <c r="AD19" s="24">
-        <v>0.717312972909442</v>
+        <v>-0.7023311196777901</v>
       </c>
       <c r="AE19" s="24">
-        <v>61.98</v>
+        <v>38.27</v>
       </c>
       <c r="AF19" s="24">
-        <v>20.2</v>
+        <v>13.1</v>
       </c>
       <c r="AG19" s="24">
-        <v>0.180264723779484</v>
+        <v>-1.7802443964003</v>
       </c>
       <c r="AH19" s="24">
-        <v>53.01</v>
+        <v>20.27</v>
       </c>
       <c r="AI19" s="24">
-        <v>67.2835253200696</v>
+        <v>61.0341517427535</v>
       </c>
       <c r="AJ19" s="24">
-        <v>-0.175568867935283</v>
+        <v>-1.42613079778214</v>
       </c>
       <c r="AK19" s="24">
-        <v>47.07</v>
+        <v>26.18</v>
       </c>
       <c r="AL19" s="24">
-        <v>82.3792984658364</v>
+        <v>82.400672912652</v>
       </c>
       <c r="AM19" s="24">
-        <v>-0.39143823423043</v>
+        <v>-0.383656699556308</v>
       </c>
       <c r="AN19" s="24">
-        <v>43.46</v>
+        <v>43.59</v>
       </c>
       <c r="AO19" s="24">
-        <v>90.513090662940</v>
+        <v>93.0119697323622</v>
       </c>
       <c r="AP19" s="24">
-        <v>-0.643258535321718</v>
+        <v>0.521820678517689</v>
       </c>
       <c r="AQ19" s="24">
-        <v>39.26</v>
+        <v>58.71</v>
       </c>
       <c r="AR19" s="24">
-        <v>49.68</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s" s="21">
         <v>80</v>
@@ -4461,129 +4455,129 @@
         <v>2022</v>
       </c>
       <c r="E20" s="23">
-        <v>5.24</v>
+        <v>7.76</v>
       </c>
       <c r="F20" s="24">
-        <v>0.994652142889487</v>
+        <v>0.396463471220179</v>
       </c>
       <c r="G20" s="24">
-        <v>66.61</v>
+        <v>56.62</v>
       </c>
       <c r="H20" s="24">
-        <v>66.15000000000001</v>
+        <v>63.44</v>
       </c>
       <c r="I20" s="24">
-        <v>1.63134174499678</v>
+        <v>1.26553590478026</v>
       </c>
       <c r="J20" s="24">
-        <v>77.23999999999999</v>
+        <v>71.13</v>
       </c>
       <c r="K20" s="24">
-        <v>39.8</v>
+        <v>39.92</v>
       </c>
       <c r="L20" s="24">
-        <v>-1.38503361173211</v>
+        <v>-1.36412843630287</v>
       </c>
       <c r="M20" s="24">
-        <v>26.87</v>
+        <v>27.22</v>
       </c>
       <c r="N20" s="24">
-        <v>55.27</v>
+        <v>48.5</v>
       </c>
       <c r="O20" s="24">
-        <v>0.025259877466552</v>
+        <v>-0.950358705286222</v>
       </c>
       <c r="P20" s="24">
-        <v>50.42</v>
+        <v>34.13</v>
       </c>
       <c r="Q20" s="24">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R20" s="24">
-        <v>-0.447972475998126</v>
+        <v>-0.427035490788337</v>
       </c>
       <c r="S20" s="24">
-        <v>42.52</v>
+        <v>42.87</v>
       </c>
       <c r="T20" s="24">
-        <v>73.3</v>
+        <v>74.7</v>
       </c>
       <c r="U20" s="24">
-        <v>0.649229465820653</v>
+        <v>0.830603059058202</v>
       </c>
       <c r="V20" s="24">
-        <v>60.84</v>
+        <v>63.87</v>
       </c>
       <c r="W20" s="24">
-        <v>21.8</v>
+        <v>22.5</v>
       </c>
       <c r="X20" s="24">
-        <v>-1.1048396559634</v>
+        <v>-1.2589357132425</v>
       </c>
       <c r="Y20" s="24">
-        <v>31.59</v>
+        <v>29.02</v>
       </c>
       <c r="Z20" s="24">
-        <v>38.8</v>
+        <v>36.1</v>
       </c>
       <c r="AA20" s="24">
-        <v>1.08270672905306</v>
+        <v>0.424248025578805</v>
       </c>
       <c r="AB20" s="24">
-        <v>68.08</v>
+        <v>57.08</v>
       </c>
       <c r="AC20" s="24">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="AD20" s="24">
-        <v>-0.7023311196777901</v>
+        <v>-0.774516412521208</v>
       </c>
       <c r="AE20" s="24">
-        <v>38.27</v>
+        <v>37.07</v>
       </c>
       <c r="AF20" s="24">
-        <v>13.1</v>
+        <v>15.3</v>
       </c>
       <c r="AG20" s="24">
-        <v>-1.7802443964003</v>
+        <v>-1.17276269718966</v>
       </c>
       <c r="AH20" s="24">
-        <v>20.27</v>
+        <v>30.41</v>
       </c>
       <c r="AI20" s="24">
-        <v>61.0341517427535</v>
+        <v>60.3589619883226</v>
       </c>
       <c r="AJ20" s="24">
-        <v>-1.42613079778214</v>
+        <v>-1.56124299612772</v>
       </c>
       <c r="AK20" s="24">
-        <v>26.18</v>
+        <v>23.93</v>
       </c>
       <c r="AL20" s="24">
-        <v>82.400672912652</v>
+        <v>80.1830804652285</v>
       </c>
       <c r="AM20" s="24">
-        <v>-0.383656699556308</v>
+        <v>-1.19098858849684</v>
       </c>
       <c r="AN20" s="24">
-        <v>43.59</v>
+        <v>30.11</v>
       </c>
       <c r="AO20" s="24">
-        <v>93.0119697323622</v>
+        <v>93.4324799570828</v>
       </c>
       <c r="AP20" s="24">
-        <v>0.521820678517689</v>
+        <v>0.71787967473882</v>
       </c>
       <c r="AQ20" s="24">
-        <v>58.71</v>
+        <v>61.99</v>
       </c>
       <c r="AR20" s="24">
-        <v>47.01</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s" s="21">
         <v>82</v>
@@ -4595,129 +4589,129 @@
         <v>2022</v>
       </c>
       <c r="E21" s="23">
-        <v>7.76</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F21" s="24">
-        <v>0.396463471220179</v>
+        <v>0.251663832443085</v>
       </c>
       <c r="G21" s="24">
-        <v>56.62</v>
+        <v>54.2</v>
       </c>
       <c r="H21" s="24">
-        <v>63.44</v>
+        <v>60.1</v>
       </c>
       <c r="I21" s="24">
-        <v>1.26553590478026</v>
+        <v>0.814690330491264</v>
       </c>
       <c r="J21" s="24">
-        <v>71.13</v>
+        <v>63.61</v>
       </c>
       <c r="K21" s="24">
-        <v>39.92</v>
+        <v>43.92</v>
       </c>
       <c r="L21" s="24">
-        <v>-1.36412843630287</v>
+        <v>-0.667289255328418</v>
       </c>
       <c r="M21" s="24">
-        <v>27.22</v>
+        <v>38.86</v>
       </c>
       <c r="N21" s="24">
-        <v>48.5</v>
+        <v>57.5</v>
       </c>
       <c r="O21" s="24">
-        <v>-0.950358705286222</v>
+        <v>0.346623162479651</v>
       </c>
       <c r="P21" s="24">
-        <v>34.13</v>
+        <v>55.79</v>
       </c>
       <c r="Q21" s="24">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="R21" s="24">
-        <v>-0.427035490788337</v>
+        <v>-0.57359438725686</v>
       </c>
       <c r="S21" s="24">
-        <v>42.87</v>
+        <v>40.42</v>
       </c>
       <c r="T21" s="24">
-        <v>74.7</v>
+        <v>66.8</v>
       </c>
       <c r="U21" s="24">
-        <v>0.830603059058202</v>
+        <v>-0.192862217067961</v>
       </c>
       <c r="V21" s="24">
-        <v>63.87</v>
+        <v>46.78</v>
       </c>
       <c r="W21" s="24">
-        <v>22.5</v>
+        <v>12.2</v>
       </c>
       <c r="X21" s="24">
-        <v>-1.2589357132425</v>
+        <v>1.00847770100719</v>
       </c>
       <c r="Y21" s="24">
-        <v>29.02</v>
+        <v>66.81</v>
       </c>
       <c r="Z21" s="24">
-        <v>36.1</v>
+        <v>39.4</v>
       </c>
       <c r="AA21" s="24">
-        <v>0.424248025578805</v>
+        <v>1.22903088538068</v>
       </c>
       <c r="AB21" s="24">
-        <v>57.08</v>
+        <v>70.52</v>
       </c>
       <c r="AC21" s="24">
-        <v>26.1</v>
+        <v>28.9</v>
       </c>
       <c r="AD21" s="24">
-        <v>-0.774516412521208</v>
+        <v>-0.100787012649302</v>
       </c>
       <c r="AE21" s="24">
-        <v>37.07</v>
+        <v>48.32</v>
       </c>
       <c r="AF21" s="24">
-        <v>15.3</v>
+        <v>19.6</v>
       </c>
       <c r="AG21" s="24">
-        <v>-1.17276269718966</v>
+        <v>0.0145878967220382</v>
       </c>
       <c r="AH21" s="24">
-        <v>30.41</v>
+        <v>50.24</v>
       </c>
       <c r="AI21" s="24">
-        <v>60.3589619883226</v>
+        <v>70.5415899205299</v>
       </c>
       <c r="AJ21" s="24">
-        <v>-1.56124299612772</v>
+        <v>0.476402326282746</v>
       </c>
       <c r="AK21" s="24">
-        <v>23.93</v>
+        <v>57.96</v>
       </c>
       <c r="AL21" s="24">
-        <v>80.1830804652285</v>
+        <v>83.5905950311741</v>
       </c>
       <c r="AM21" s="24">
-        <v>-1.19098858849684</v>
+        <v>0.0495437619417976</v>
       </c>
       <c r="AN21" s="24">
-        <v>30.11</v>
+        <v>50.83</v>
       </c>
       <c r="AO21" s="24">
-        <v>93.4324799570828</v>
+        <v>91.2795081795522</v>
       </c>
       <c r="AP21" s="24">
-        <v>0.71787967473882</v>
+        <v>-0.285923469109909</v>
       </c>
       <c r="AQ21" s="24">
-        <v>61.99</v>
+        <v>45.23</v>
       </c>
       <c r="AR21" s="24">
-        <v>43.5</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s" s="21">
         <v>84</v>
@@ -4729,129 +4723,129 @@
         <v>2022</v>
       </c>
       <c r="E22" s="23">
-        <v>8.369999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="F22" s="24">
-        <v>0.251663832443085</v>
+        <v>0.9566719097676259</v>
       </c>
       <c r="G22" s="24">
-        <v>54.2</v>
+        <v>65.98</v>
       </c>
       <c r="H22" s="24">
-        <v>60.1</v>
+        <v>52.78</v>
       </c>
       <c r="I22" s="24">
-        <v>0.814690330491264</v>
+        <v>-0.17339038920797</v>
       </c>
       <c r="J22" s="24">
-        <v>63.61</v>
+        <v>47.1</v>
       </c>
       <c r="K22" s="24">
-        <v>43.92</v>
+        <v>54.32</v>
       </c>
       <c r="L22" s="24">
-        <v>-0.667289255328418</v>
+        <v>1.14449261520517</v>
       </c>
       <c r="M22" s="24">
-        <v>38.86</v>
+        <v>69.11</v>
       </c>
       <c r="N22" s="24">
-        <v>57.5</v>
+        <v>64.39</v>
       </c>
       <c r="O22" s="24">
-        <v>0.346623162479651</v>
+        <v>1.33953483680264</v>
       </c>
       <c r="P22" s="24">
-        <v>55.79</v>
+        <v>72.37</v>
       </c>
       <c r="Q22" s="24">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="R22" s="24">
-        <v>-0.57359438725686</v>
+        <v>0.682624725330478</v>
       </c>
       <c r="S22" s="24">
-        <v>40.42</v>
+        <v>61.4</v>
       </c>
       <c r="T22" s="24">
-        <v>66.8</v>
+        <v>63.2</v>
       </c>
       <c r="U22" s="24">
-        <v>-0.192862217067961</v>
+        <v>-0.659251456821654</v>
       </c>
       <c r="V22" s="24">
-        <v>46.78</v>
+        <v>38.99</v>
       </c>
       <c r="W22" s="24">
-        <v>12.2</v>
+        <v>16.7</v>
       </c>
       <c r="X22" s="24">
-        <v>1.00847770100719</v>
+        <v>0.0178601899272275</v>
       </c>
       <c r="Y22" s="24">
-        <v>66.81</v>
+        <v>50.3</v>
       </c>
       <c r="Z22" s="24">
-        <v>39.4</v>
+        <v>31.6</v>
       </c>
       <c r="AA22" s="24">
-        <v>1.22903088538068</v>
+        <v>-0.6731831468782939</v>
       </c>
       <c r="AB22" s="24">
-        <v>70.52</v>
+        <v>38.76</v>
       </c>
       <c r="AC22" s="24">
-        <v>28.9</v>
+        <v>26</v>
       </c>
       <c r="AD22" s="24">
-        <v>-0.100787012649302</v>
+        <v>-0.798578176802348</v>
       </c>
       <c r="AE22" s="24">
-        <v>48.32</v>
+        <v>36.66</v>
       </c>
       <c r="AF22" s="24">
-        <v>19.6</v>
+        <v>25.7</v>
       </c>
       <c r="AG22" s="24">
-        <v>0.0145878967220382</v>
+        <v>1.69896897180607</v>
       </c>
       <c r="AH22" s="24">
-        <v>50.24</v>
+        <v>78.37</v>
       </c>
       <c r="AI22" s="24">
-        <v>70.5415899205299</v>
+        <v>72.9157154597754</v>
       </c>
       <c r="AJ22" s="24">
-        <v>0.476402326282746</v>
+        <v>0.951488505613482</v>
       </c>
       <c r="AK22" s="24">
-        <v>57.96</v>
+        <v>65.89</v>
       </c>
       <c r="AL22" s="24">
-        <v>83.5905950311741</v>
+        <v>85.0162581936135</v>
       </c>
       <c r="AM22" s="24">
-        <v>0.0495437619417976</v>
+        <v>0.568567595767709</v>
       </c>
       <c r="AN22" s="24">
-        <v>50.83</v>
+        <v>59.5</v>
       </c>
       <c r="AO22" s="24">
-        <v>91.2795081795522</v>
+        <v>92.211071964448</v>
       </c>
       <c r="AP22" s="24">
-        <v>-0.285923469109909</v>
+        <v>0.148409514598109</v>
       </c>
       <c r="AQ22" s="24">
-        <v>45.23</v>
+        <v>52.48</v>
       </c>
       <c r="AR22" s="24">
-        <v>53.04</v>
+        <v>56.69</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s" s="21">
         <v>86</v>
@@ -4863,129 +4857,129 @@
         <v>2022</v>
       </c>
       <c r="E23" s="23">
-        <v>5.4</v>
+        <v>2.99</v>
       </c>
       <c r="F23" s="24">
-        <v>0.9566719097676259</v>
+        <v>1.52874917116566</v>
       </c>
       <c r="G23" s="24">
-        <v>65.98</v>
+        <v>75.53</v>
       </c>
       <c r="H23" s="24">
-        <v>52.78</v>
+        <v>61.07</v>
       </c>
       <c r="I23" s="24">
-        <v>-0.17339038920797</v>
+        <v>0.945624524221901</v>
       </c>
       <c r="J23" s="24">
-        <v>47.1</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="K23" s="24">
-        <v>54.32</v>
+        <v>47.28</v>
       </c>
       <c r="L23" s="24">
-        <v>1.14449261520517</v>
+        <v>-0.08194434330987491</v>
       </c>
       <c r="M23" s="24">
-        <v>69.11</v>
+        <v>48.63</v>
       </c>
       <c r="N23" s="24">
-        <v>64.39</v>
+        <v>56.05</v>
       </c>
       <c r="O23" s="24">
-        <v>1.33953483680264</v>
+        <v>0.137664972672927</v>
       </c>
       <c r="P23" s="24">
-        <v>72.37</v>
+        <v>52.3</v>
       </c>
       <c r="Q23" s="24">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="R23" s="24">
-        <v>0.682624725330478</v>
+        <v>0.85012060700879</v>
       </c>
       <c r="S23" s="24">
-        <v>61.4</v>
+        <v>64.2</v>
       </c>
       <c r="T23" s="24">
-        <v>63.2</v>
+        <v>59.7</v>
       </c>
       <c r="U23" s="24">
-        <v>-0.659251456821654</v>
+        <v>-1.11268543991552</v>
       </c>
       <c r="V23" s="24">
-        <v>38.99</v>
+        <v>31.42</v>
       </c>
       <c r="W23" s="24">
-        <v>16.7</v>
+        <v>18.8</v>
       </c>
       <c r="X23" s="24">
-        <v>0.0178601899272275</v>
+        <v>-0.444427981910088</v>
       </c>
       <c r="Y23" s="24">
-        <v>50.3</v>
+        <v>42.59</v>
       </c>
       <c r="Z23" s="24">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="AA23" s="24">
-        <v>-0.6731831468782939</v>
+        <v>-0.52685899055068</v>
       </c>
       <c r="AB23" s="24">
-        <v>38.76</v>
+        <v>41.2</v>
       </c>
       <c r="AC23" s="24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD23" s="24">
-        <v>-0.798578176802348</v>
+        <v>-1.03919581961374</v>
       </c>
       <c r="AE23" s="24">
-        <v>36.66</v>
+        <v>32.65</v>
       </c>
       <c r="AF23" s="24">
-        <v>25.7</v>
+        <v>23.9</v>
       </c>
       <c r="AG23" s="24">
-        <v>1.69896897180607</v>
+        <v>1.20193849063374</v>
       </c>
       <c r="AH23" s="24">
-        <v>78.37</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="AI23" s="24">
-        <v>72.9157154597754</v>
+        <v>66.72603612710409</v>
       </c>
       <c r="AJ23" s="24">
-        <v>0.951488505613482</v>
+        <v>-0.287128011007527</v>
       </c>
       <c r="AK23" s="24">
-        <v>65.89</v>
+        <v>45.2</v>
       </c>
       <c r="AL23" s="24">
-        <v>85.0162581936135</v>
+        <v>82.7112908187931</v>
       </c>
       <c r="AM23" s="24">
-        <v>0.568567595767709</v>
+        <v>-0.270573819428804</v>
       </c>
       <c r="AN23" s="24">
-        <v>59.5</v>
+        <v>45.48</v>
       </c>
       <c r="AO23" s="24">
-        <v>92.211071964448</v>
+        <v>89.775039426281</v>
       </c>
       <c r="AP23" s="24">
-        <v>0.148409514598109</v>
+        <v>-0.987368086320798</v>
       </c>
       <c r="AQ23" s="24">
-        <v>52.48</v>
+        <v>33.51</v>
       </c>
       <c r="AR23" s="24">
-        <v>56.69</v>
+        <v>49.89</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s" s="21">
         <v>88</v>
@@ -4997,129 +4991,129 @@
         <v>2022</v>
       </c>
       <c r="E24" s="23">
-        <v>2.99</v>
+        <v>5.34</v>
       </c>
       <c r="F24" s="24">
-        <v>1.52874917116566</v>
+        <v>0.970914497188324</v>
       </c>
       <c r="G24" s="24">
-        <v>75.53</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="H24" s="24">
-        <v>61.07</v>
+        <v>61.53</v>
       </c>
       <c r="I24" s="24">
-        <v>0.945624524221901</v>
+        <v>1.0077170284653</v>
       </c>
       <c r="J24" s="24">
-        <v>65.79000000000001</v>
+        <v>66.83</v>
       </c>
       <c r="K24" s="24">
-        <v>47.28</v>
+        <v>45.85</v>
       </c>
       <c r="L24" s="24">
-        <v>-0.08194434330987491</v>
+        <v>-0.331064350508243</v>
       </c>
       <c r="M24" s="24">
-        <v>48.63</v>
+        <v>44.47</v>
       </c>
       <c r="N24" s="24">
-        <v>56.05</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="O24" s="24">
-        <v>0.137664972672927</v>
+        <v>1.50093702479128</v>
       </c>
       <c r="P24" s="24">
-        <v>52.3</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="Q24" s="24">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="R24" s="24">
-        <v>0.85012060700879</v>
+        <v>-0.17579166827087</v>
       </c>
       <c r="S24" s="24">
-        <v>64.2</v>
+        <v>47.06</v>
       </c>
       <c r="T24" s="24">
-        <v>59.7</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="U24" s="24">
-        <v>-1.11268543991552</v>
+        <v>0.299437536005383</v>
       </c>
       <c r="V24" s="24">
-        <v>31.42</v>
+        <v>55</v>
       </c>
       <c r="W24" s="24">
-        <v>18.8</v>
+        <v>15.8</v>
       </c>
       <c r="X24" s="24">
-        <v>-0.444427981910088</v>
+        <v>0.21598369214322</v>
       </c>
       <c r="Y24" s="24">
-        <v>42.59</v>
+        <v>53.6</v>
       </c>
       <c r="Z24" s="24">
-        <v>32.2</v>
+        <v>36</v>
       </c>
       <c r="AA24" s="24">
-        <v>-0.52685899055068</v>
+        <v>0.399860666190869</v>
       </c>
       <c r="AB24" s="24">
-        <v>41.2</v>
+        <v>56.68</v>
       </c>
       <c r="AC24" s="24">
-        <v>25</v>
+        <v>31.6</v>
       </c>
       <c r="AD24" s="24">
-        <v>-1.03919581961374</v>
+        <v>0.548880622941466</v>
       </c>
       <c r="AE24" s="24">
-        <v>32.65</v>
+        <v>59.17</v>
       </c>
       <c r="AF24" s="24">
-        <v>23.9</v>
+        <v>16.6</v>
       </c>
       <c r="AG24" s="24">
-        <v>1.20193849063374</v>
+        <v>-0.813796238565193</v>
       </c>
       <c r="AH24" s="24">
-        <v>70.06999999999999</v>
+        <v>36.41</v>
       </c>
       <c r="AI24" s="24">
-        <v>66.72603612710409</v>
+        <v>66.8681681102929</v>
       </c>
       <c r="AJ24" s="24">
-        <v>-0.287128011007527</v>
+        <v>-0.258685984780334</v>
       </c>
       <c r="AK24" s="24">
-        <v>45.2</v>
+        <v>45.68</v>
       </c>
       <c r="AL24" s="24">
-        <v>82.7112908187931</v>
+        <v>83.8022290927549</v>
       </c>
       <c r="AM24" s="24">
-        <v>-0.270573819428804</v>
+        <v>0.126590798649869</v>
       </c>
       <c r="AN24" s="24">
-        <v>45.48</v>
+        <v>52.11</v>
       </c>
       <c r="AO24" s="24">
-        <v>89.775039426281</v>
+        <v>92.8237536907493</v>
       </c>
       <c r="AP24" s="24">
-        <v>-0.987368086320798</v>
+        <v>0.434066692949659</v>
       </c>
       <c r="AQ24" s="24">
-        <v>33.51</v>
+        <v>57.25</v>
       </c>
       <c r="AR24" s="24">
-        <v>49.89</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s" s="21">
         <v>90</v>
@@ -5131,76 +5125,76 @@
         <v>2022</v>
       </c>
       <c r="E25" s="23">
-        <v>5.34</v>
+        <v>6.59</v>
       </c>
       <c r="F25" s="24">
-        <v>0.970914497188324</v>
+        <v>0.674193925923787</v>
       </c>
       <c r="G25" s="24">
-        <v>66.20999999999999</v>
+        <v>61.26</v>
       </c>
       <c r="H25" s="24">
-        <v>61.53</v>
+        <v>54.63</v>
       </c>
       <c r="I25" s="24">
-        <v>1.0077170284653</v>
+        <v>0.0763294648143778</v>
       </c>
       <c r="J25" s="24">
-        <v>66.83</v>
+        <v>51.27</v>
       </c>
       <c r="K25" s="24">
-        <v>45.85</v>
+        <v>48.26</v>
       </c>
       <c r="L25" s="24">
-        <v>-0.331064350508243</v>
+        <v>0.0887812560288664</v>
       </c>
       <c r="M25" s="24">
-        <v>44.47</v>
+        <v>51.48</v>
       </c>
       <c r="N25" s="24">
-        <v>65.51000000000001</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="O25" s="24">
-        <v>1.50093702479128</v>
+        <v>1.44905775008064</v>
       </c>
       <c r="P25" s="24">
-        <v>75.06999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="Q25" s="24">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="R25" s="24">
-        <v>-0.17579166827087</v>
+        <v>0.389506932393432</v>
       </c>
       <c r="S25" s="24">
-        <v>47.06</v>
+        <v>56.5</v>
       </c>
       <c r="T25" s="24">
-        <v>70.59999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="U25" s="24">
-        <v>0.299437536005383</v>
+        <v>-0.490833120243932</v>
       </c>
       <c r="V25" s="24">
-        <v>55</v>
+        <v>41.8</v>
       </c>
       <c r="W25" s="24">
-        <v>15.8</v>
+        <v>12.4</v>
       </c>
       <c r="X25" s="24">
-        <v>0.21598369214322</v>
+        <v>0.964450256070302</v>
       </c>
       <c r="Y25" s="24">
-        <v>53.6</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="Z25" s="24">
-        <v>36</v>
+        <v>34.7</v>
       </c>
       <c r="AA25" s="24">
-        <v>0.399860666190869</v>
+        <v>0.0828249941477078</v>
       </c>
       <c r="AB25" s="24">
-        <v>56.68</v>
+        <v>51.38</v>
       </c>
       <c r="AC25" s="24">
         <v>31.6</v>
@@ -5212,48 +5206,48 @@
         <v>59.17</v>
       </c>
       <c r="AF25" s="24">
-        <v>16.6</v>
+        <v>21.3</v>
       </c>
       <c r="AG25" s="24">
-        <v>-0.813796238565193</v>
+        <v>0.484005573384802</v>
       </c>
       <c r="AH25" s="24">
-        <v>36.41</v>
+        <v>58.08</v>
       </c>
       <c r="AI25" s="24">
-        <v>66.8681681102929</v>
+        <v>67.64855936455319</v>
       </c>
       <c r="AJ25" s="24">
-        <v>-0.258685984780334</v>
+        <v>-0.102521917951976</v>
       </c>
       <c r="AK25" s="24">
-        <v>45.68</v>
+        <v>48.29</v>
       </c>
       <c r="AL25" s="24">
-        <v>83.8022290927549</v>
+        <v>82.6519136126097</v>
       </c>
       <c r="AM25" s="24">
-        <v>0.126590798649869</v>
+        <v>-0.292190556121676</v>
       </c>
       <c r="AN25" s="24">
-        <v>52.11</v>
+        <v>45.12</v>
       </c>
       <c r="AO25" s="24">
-        <v>92.8237536907493</v>
+        <v>88.9111200912027</v>
       </c>
       <c r="AP25" s="24">
-        <v>0.434066692949659</v>
+        <v>-1.39016247203167</v>
       </c>
       <c r="AQ25" s="24">
-        <v>57.25</v>
+        <v>26.78</v>
       </c>
       <c r="AR25" s="24">
-        <v>55.04</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s" s="21">
         <v>92</v>
@@ -5265,129 +5259,129 @@
         <v>2022</v>
       </c>
       <c r="E26" s="23">
-        <v>6.59</v>
+        <v>16.01</v>
       </c>
       <c r="F26" s="24">
-        <v>0.674193925923787</v>
+        <v>-1.56189229912577</v>
       </c>
       <c r="G26" s="24">
-        <v>61.26</v>
+        <v>23.92</v>
       </c>
       <c r="H26" s="24">
-        <v>54.63</v>
+        <v>52.95</v>
       </c>
       <c r="I26" s="24">
-        <v>0.0763294648143778</v>
+        <v>-0.150443159378889</v>
       </c>
       <c r="J26" s="24">
-        <v>51.27</v>
+        <v>47.49</v>
       </c>
       <c r="K26" s="24">
-        <v>48.26</v>
+        <v>41.5</v>
       </c>
       <c r="L26" s="24">
-        <v>0.0887812560288664</v>
+        <v>-1.08887695981796</v>
       </c>
       <c r="M26" s="24">
-        <v>51.48</v>
+        <v>31.82</v>
       </c>
       <c r="N26" s="24">
-        <v>65.15000000000001</v>
+        <v>48</v>
       </c>
       <c r="O26" s="24">
-        <v>1.44905775008064</v>
+        <v>-1.02241325349544</v>
       </c>
       <c r="P26" s="24">
-        <v>74.2</v>
+        <v>32.93</v>
       </c>
       <c r="Q26" s="24">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="R26" s="24">
-        <v>0.389506932393432</v>
+        <v>-0.678279313305805</v>
       </c>
       <c r="S26" s="24">
-        <v>56.5</v>
+        <v>38.67</v>
       </c>
       <c r="T26" s="24">
-        <v>64.5</v>
+        <v>78.3</v>
       </c>
       <c r="U26" s="24">
-        <v>-0.490833120243932</v>
+        <v>1.2969922988119</v>
       </c>
       <c r="V26" s="24">
-        <v>41.8</v>
+        <v>71.66</v>
       </c>
       <c r="W26" s="24">
-        <v>12.4</v>
+        <v>22.8</v>
       </c>
       <c r="X26" s="24">
-        <v>0.964450256070302</v>
+        <v>-1.32497688064783</v>
       </c>
       <c r="Y26" s="24">
-        <v>66.06999999999999</v>
+        <v>27.92</v>
       </c>
       <c r="Z26" s="24">
-        <v>34.7</v>
+        <v>34.1</v>
       </c>
       <c r="AA26" s="24">
-        <v>0.0828249941477078</v>
+        <v>-0.0634991621799057</v>
       </c>
       <c r="AB26" s="24">
-        <v>51.38</v>
+        <v>48.94</v>
       </c>
       <c r="AC26" s="24">
-        <v>31.6</v>
+        <v>29</v>
       </c>
       <c r="AD26" s="24">
-        <v>0.548880622941466</v>
+        <v>-0.0767252483681619</v>
       </c>
       <c r="AE26" s="24">
-        <v>59.17</v>
+        <v>48.72</v>
       </c>
       <c r="AF26" s="24">
-        <v>21.3</v>
+        <v>14.1</v>
       </c>
       <c r="AG26" s="24">
-        <v>0.484005573384802</v>
+        <v>-1.50411635130455</v>
       </c>
       <c r="AH26" s="24">
-        <v>58.08</v>
+        <v>24.88</v>
       </c>
       <c r="AI26" s="24">
-        <v>67.64855936455319</v>
+        <v>58.1108704710842</v>
       </c>
       <c r="AJ26" s="24">
-        <v>-0.102521917951976</v>
+        <v>-2.0111085116851</v>
       </c>
       <c r="AK26" s="24">
-        <v>48.29</v>
+        <v>16.41</v>
       </c>
       <c r="AL26" s="24">
-        <v>82.6519136126097</v>
+        <v>77.93499857821691</v>
       </c>
       <c r="AM26" s="24">
-        <v>-0.292190556121676</v>
+        <v>-2.00942039657896</v>
       </c>
       <c r="AN26" s="24">
-        <v>45.12</v>
+        <v>16.44</v>
       </c>
       <c r="AO26" s="24">
-        <v>88.9111200912027</v>
+        <v>93.16036159475991</v>
       </c>
       <c r="AP26" s="24">
-        <v>-1.39016247203167</v>
+        <v>0.591007009500266</v>
       </c>
       <c r="AQ26" s="24">
-        <v>26.78</v>
+        <v>59.87</v>
       </c>
       <c r="AR26" s="24">
-        <v>53.18</v>
+        <v>37.67</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s" s="21">
         <v>94</v>
@@ -5399,76 +5393,76 @@
         <v>2022</v>
       </c>
       <c r="E27" s="23">
-        <v>16.01</v>
+        <v>14.13</v>
       </c>
       <c r="F27" s="24">
-        <v>-1.56189229912577</v>
+        <v>-1.1156245599439</v>
       </c>
       <c r="G27" s="24">
-        <v>23.92</v>
+        <v>31.37</v>
       </c>
       <c r="H27" s="24">
-        <v>52.95</v>
+        <v>49.21</v>
       </c>
       <c r="I27" s="24">
-        <v>-0.150443159378889</v>
+        <v>-0.655282215618662</v>
       </c>
       <c r="J27" s="24">
-        <v>47.49</v>
+        <v>39.06</v>
       </c>
       <c r="K27" s="24">
-        <v>41.5</v>
+        <v>46.92</v>
       </c>
       <c r="L27" s="24">
-        <v>-1.08887695981796</v>
+        <v>-0.144659869597576</v>
       </c>
       <c r="M27" s="24">
-        <v>31.82</v>
+        <v>47.58</v>
       </c>
       <c r="N27" s="24">
-        <v>48</v>
+        <v>52.35</v>
       </c>
       <c r="O27" s="24">
-        <v>-1.02241325349544</v>
+        <v>-0.395538684075265</v>
       </c>
       <c r="P27" s="24">
-        <v>32.93</v>
+        <v>43.39</v>
       </c>
       <c r="Q27" s="24">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="R27" s="24">
-        <v>-0.678279313305805</v>
+        <v>-0.364224535158971</v>
       </c>
       <c r="S27" s="24">
-        <v>38.67</v>
+        <v>43.92</v>
       </c>
       <c r="T27" s="24">
-        <v>78.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="U27" s="24">
-        <v>1.2969922988119</v>
+        <v>0.532632155882231</v>
       </c>
       <c r="V27" s="24">
-        <v>71.66</v>
+        <v>58.89</v>
       </c>
       <c r="W27" s="24">
-        <v>22.8</v>
+        <v>16.7</v>
       </c>
       <c r="X27" s="24">
-        <v>-1.32497688064783</v>
+        <v>0.0178601899272275</v>
       </c>
       <c r="Y27" s="24">
-        <v>27.92</v>
+        <v>50.3</v>
       </c>
       <c r="Z27" s="24">
-        <v>34.1</v>
+        <v>38.6</v>
       </c>
       <c r="AA27" s="24">
-        <v>-0.0634991621799057</v>
+        <v>1.03393201027719</v>
       </c>
       <c r="AB27" s="24">
-        <v>48.94</v>
+        <v>67.27</v>
       </c>
       <c r="AC27" s="24">
         <v>29</v>
@@ -5480,48 +5474,48 @@
         <v>48.72</v>
       </c>
       <c r="AF27" s="24">
-        <v>14.1</v>
+        <v>15.8</v>
       </c>
       <c r="AG27" s="24">
-        <v>-1.50411635130455</v>
+        <v>-1.03469867464179</v>
       </c>
       <c r="AH27" s="24">
-        <v>24.88</v>
+        <v>32.72</v>
       </c>
       <c r="AI27" s="24">
-        <v>58.1108704710842</v>
+        <v>63.4361306222535</v>
       </c>
       <c r="AJ27" s="24">
-        <v>-2.0111085116851</v>
+        <v>-0.945470887498948</v>
       </c>
       <c r="AK27" s="24">
-        <v>16.41</v>
+        <v>34.21</v>
       </c>
       <c r="AL27" s="24">
-        <v>77.93499857821691</v>
+        <v>81.1504475923721</v>
       </c>
       <c r="AM27" s="24">
-        <v>-2.00942039657896</v>
+        <v>-0.838811013684479</v>
       </c>
       <c r="AN27" s="24">
-        <v>16.44</v>
+        <v>35.99</v>
       </c>
       <c r="AO27" s="24">
-        <v>93.16036159475991</v>
+        <v>91.075856246985</v>
       </c>
       <c r="AP27" s="24">
-        <v>0.591007009500266</v>
+        <v>-0.380874295820835</v>
       </c>
       <c r="AQ27" s="24">
-        <v>59.87</v>
+        <v>43.64</v>
       </c>
       <c r="AR27" s="24">
-        <v>37.67</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="21">
         <v>96</v>
@@ -5533,129 +5527,129 @@
         <v>2022</v>
       </c>
       <c r="E28" s="23">
-        <v>14.13</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F28" s="24">
-        <v>-1.1156245599439</v>
+        <v>0.327624298686806</v>
       </c>
       <c r="G28" s="24">
-        <v>31.37</v>
+        <v>55.47</v>
       </c>
       <c r="H28" s="24">
-        <v>49.21</v>
+        <v>56.21</v>
       </c>
       <c r="I28" s="24">
-        <v>-0.655282215618662</v>
+        <v>0.28960371851995</v>
       </c>
       <c r="J28" s="24">
-        <v>39.06</v>
+        <v>54.84</v>
       </c>
       <c r="K28" s="24">
-        <v>46.92</v>
+        <v>48.16</v>
       </c>
       <c r="L28" s="24">
-        <v>-0.144659869597576</v>
+        <v>0.0713602765045048</v>
       </c>
       <c r="M28" s="24">
-        <v>47.58</v>
+        <v>51.19</v>
       </c>
       <c r="N28" s="24">
-        <v>52.35</v>
+        <v>58.2</v>
       </c>
       <c r="O28" s="24">
-        <v>-0.395538684075265</v>
+        <v>0.447499529972553</v>
       </c>
       <c r="P28" s="24">
-        <v>43.39</v>
+        <v>57.47</v>
       </c>
       <c r="Q28" s="24">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="R28" s="24">
-        <v>-0.364224535158971</v>
+        <v>-0.447972475998126</v>
       </c>
       <c r="S28" s="24">
-        <v>43.92</v>
+        <v>42.52</v>
       </c>
       <c r="T28" s="24">
-        <v>72.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="U28" s="24">
-        <v>0.532632155882231</v>
+        <v>-0.128085933768837</v>
       </c>
       <c r="V28" s="24">
-        <v>58.89</v>
+        <v>47.86</v>
       </c>
       <c r="W28" s="24">
-        <v>16.7</v>
+        <v>10.4</v>
       </c>
       <c r="X28" s="24">
-        <v>0.0178601899272275</v>
+        <v>1.40472470543917</v>
       </c>
       <c r="Y28" s="24">
-        <v>50.3</v>
+        <v>73.41</v>
       </c>
       <c r="Z28" s="24">
-        <v>38.6</v>
+        <v>34.7</v>
       </c>
       <c r="AA28" s="24">
-        <v>1.03393201027719</v>
+        <v>0.0828249941477078</v>
       </c>
       <c r="AB28" s="24">
-        <v>67.27</v>
+        <v>51.38</v>
       </c>
       <c r="AC28" s="24">
-        <v>29</v>
+        <v>33.1</v>
       </c>
       <c r="AD28" s="24">
-        <v>-0.0767252483681619</v>
+        <v>0.909807087158559</v>
       </c>
       <c r="AE28" s="24">
-        <v>48.72</v>
+        <v>65.19</v>
       </c>
       <c r="AF28" s="24">
-        <v>15.8</v>
+        <v>21.7</v>
       </c>
       <c r="AG28" s="24">
-        <v>-1.03469867464179</v>
+        <v>0.5944567914231</v>
       </c>
       <c r="AH28" s="24">
-        <v>32.72</v>
+        <v>59.93</v>
       </c>
       <c r="AI28" s="24">
-        <v>63.4361306222535</v>
+        <v>68.481206551196</v>
       </c>
       <c r="AJ28" s="24">
-        <v>-0.945470887498948</v>
+        <v>0.0640990816933634</v>
       </c>
       <c r="AK28" s="24">
-        <v>34.21</v>
+        <v>51.07</v>
       </c>
       <c r="AL28" s="24">
-        <v>81.1504475923721</v>
+        <v>82.49675975020619</v>
       </c>
       <c r="AM28" s="24">
-        <v>-0.838811013684479</v>
+        <v>-0.348675534214101</v>
       </c>
       <c r="AN28" s="24">
-        <v>35.99</v>
+        <v>44.18</v>
       </c>
       <c r="AO28" s="24">
-        <v>91.075856246985</v>
+        <v>91.3141695374711</v>
       </c>
       <c r="AP28" s="24">
-        <v>-0.380874295820835</v>
+        <v>-0.269762932119977</v>
       </c>
       <c r="AQ28" s="24">
-        <v>43.64</v>
+        <v>45.49</v>
       </c>
       <c r="AR28" s="24">
-        <v>44.39</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s" s="21">
         <v>98</v>
@@ -5667,129 +5661,129 @@
         <v>2022</v>
       </c>
       <c r="E29" s="23">
-        <v>8.050000000000001</v>
+        <v>12.73</v>
       </c>
       <c r="F29" s="24">
-        <v>0.327624298686806</v>
+        <v>-0.783297520127623</v>
       </c>
       <c r="G29" s="24">
-        <v>55.47</v>
+        <v>36.92</v>
       </c>
       <c r="H29" s="24">
-        <v>56.21</v>
+        <v>43.85</v>
       </c>
       <c r="I29" s="24">
-        <v>0.28960371851995</v>
+        <v>-1.37879487375908</v>
       </c>
       <c r="J29" s="24">
+        <v>26.97</v>
+      </c>
+      <c r="K29" s="24">
         <v>54.84</v>
       </c>
-      <c r="K29" s="24">
-        <v>48.16</v>
-      </c>
       <c r="L29" s="24">
-        <v>0.0713602765045048</v>
+        <v>1.23508170873185</v>
       </c>
       <c r="M29" s="24">
-        <v>51.19</v>
+        <v>70.63</v>
       </c>
       <c r="N29" s="24">
-        <v>58.2</v>
+        <v>58.17</v>
       </c>
       <c r="O29" s="24">
-        <v>0.447499529972553</v>
+        <v>0.443176257080</v>
       </c>
       <c r="P29" s="24">
-        <v>57.47</v>
+        <v>57.4</v>
       </c>
       <c r="Q29" s="24">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R29" s="24">
-        <v>-0.447972475998126</v>
+        <v>-0.468909461207915</v>
       </c>
       <c r="S29" s="24">
-        <v>42.52</v>
+        <v>42.17</v>
       </c>
       <c r="T29" s="24">
-        <v>67.3</v>
+        <v>72.2</v>
       </c>
       <c r="U29" s="24">
-        <v>-0.128085933768837</v>
+        <v>0.506721642562581</v>
       </c>
       <c r="V29" s="24">
-        <v>47.86</v>
+        <v>58.46</v>
       </c>
       <c r="W29" s="24">
-        <v>10.4</v>
+        <v>13.1</v>
       </c>
       <c r="X29" s="24">
-        <v>1.40472470543917</v>
+        <v>0.810354198791197</v>
       </c>
       <c r="Y29" s="24">
-        <v>73.41</v>
+        <v>63.51</v>
       </c>
       <c r="Z29" s="24">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="AA29" s="24">
-        <v>0.0828249941477078</v>
+        <v>0.155987072311514</v>
       </c>
       <c r="AB29" s="24">
-        <v>51.38</v>
+        <v>52.6</v>
       </c>
       <c r="AC29" s="24">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="AD29" s="24">
-        <v>0.909807087158559</v>
+        <v>0.86168355859628</v>
       </c>
       <c r="AE29" s="24">
-        <v>65.19</v>
+        <v>64.39</v>
       </c>
       <c r="AF29" s="24">
-        <v>21.7</v>
+        <v>19.1</v>
       </c>
       <c r="AG29" s="24">
-        <v>0.5944567914231</v>
+        <v>-0.123476125825834</v>
       </c>
       <c r="AH29" s="24">
-        <v>59.93</v>
+        <v>47.94</v>
       </c>
       <c r="AI29" s="24">
-        <v>68.481206551196</v>
+        <v>68.1020727290134</v>
       </c>
       <c r="AJ29" s="24">
-        <v>0.0640990816933634</v>
+        <v>-0.0117693743163516</v>
       </c>
       <c r="AK29" s="24">
-        <v>51.07</v>
+        <v>49.8</v>
       </c>
       <c r="AL29" s="24">
-        <v>82.49675975020619</v>
+        <v>82.4923010642881</v>
       </c>
       <c r="AM29" s="24">
-        <v>-0.348675534214101</v>
+        <v>-0.350298753723453</v>
       </c>
       <c r="AN29" s="24">
-        <v>44.18</v>
+        <v>44.15</v>
       </c>
       <c r="AO29" s="24">
-        <v>91.3141695374711</v>
+        <v>91.6155900934218</v>
       </c>
       <c r="AP29" s="24">
-        <v>-0.269762932119977</v>
+        <v>-0.12922839058921</v>
       </c>
       <c r="AQ29" s="24">
-        <v>45.49</v>
+        <v>47.84</v>
       </c>
       <c r="AR29" s="24">
-        <v>53.85</v>
+        <v>50.98</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s" s="21">
         <v>100</v>
@@ -5801,129 +5795,129 @@
         <v>2022</v>
       </c>
       <c r="E30" s="23">
-        <v>12.73</v>
+        <v>11.22</v>
       </c>
       <c r="F30" s="24">
-        <v>-0.783297520127623</v>
+        <v>-0.424859070040061</v>
       </c>
       <c r="G30" s="24">
-        <v>36.92</v>
+        <v>42.9</v>
       </c>
       <c r="H30" s="24">
-        <v>43.85</v>
+        <v>50.67</v>
       </c>
       <c r="I30" s="24">
-        <v>-1.37879487375908</v>
+        <v>-0.458206006498323</v>
       </c>
       <c r="J30" s="24">
-        <v>26.97</v>
+        <v>42.35</v>
       </c>
       <c r="K30" s="24">
-        <v>54.84</v>
+        <v>49.74</v>
       </c>
       <c r="L30" s="24">
-        <v>1.23508170873185</v>
+        <v>0.346611752989416</v>
       </c>
       <c r="M30" s="24">
-        <v>70.63</v>
+        <v>55.79</v>
       </c>
       <c r="N30" s="24">
-        <v>58.17</v>
+        <v>46.15</v>
       </c>
       <c r="O30" s="24">
-        <v>0.443176257080</v>
+        <v>-1.28901508186953</v>
       </c>
       <c r="P30" s="24">
-        <v>57.4</v>
+        <v>28.47</v>
       </c>
       <c r="Q30" s="24">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="R30" s="24">
-        <v>-0.468909461207915</v>
+        <v>0.201074065505332</v>
       </c>
       <c r="S30" s="24">
-        <v>42.17</v>
+        <v>53.36</v>
       </c>
       <c r="T30" s="24">
-        <v>72.2</v>
+        <v>67.2</v>
       </c>
       <c r="U30" s="24">
-        <v>0.506721642562581</v>
+        <v>-0.141041190428661</v>
       </c>
       <c r="V30" s="24">
-        <v>58.46</v>
+        <v>47.64</v>
       </c>
       <c r="W30" s="24">
-        <v>13.1</v>
+        <v>16.1</v>
       </c>
       <c r="X30" s="24">
-        <v>0.810354198791197</v>
+        <v>0.149942524737889</v>
       </c>
       <c r="Y30" s="24">
-        <v>63.51</v>
+        <v>52.5</v>
       </c>
       <c r="Z30" s="24">
-        <v>35</v>
+        <v>30.4</v>
       </c>
       <c r="AA30" s="24">
-        <v>0.155987072311514</v>
+        <v>-0.965831459533521</v>
       </c>
       <c r="AB30" s="24">
-        <v>52.6</v>
+        <v>33.87</v>
       </c>
       <c r="AC30" s="24">
-        <v>32.9</v>
+        <v>34.2</v>
       </c>
       <c r="AD30" s="24">
-        <v>0.86168355859628</v>
+        <v>1.17448649425109</v>
       </c>
       <c r="AE30" s="24">
-        <v>64.39</v>
+        <v>69.61</v>
       </c>
       <c r="AF30" s="24">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AG30" s="24">
-        <v>-0.123476125825834</v>
+        <v>-0.09586332131625989</v>
       </c>
       <c r="AH30" s="24">
-        <v>47.94</v>
+        <v>48.4</v>
       </c>
       <c r="AI30" s="24">
-        <v>68.1020727290134</v>
+        <v>78.3154849680641</v>
       </c>
       <c r="AJ30" s="24">
-        <v>-0.0117693743163516</v>
+        <v>2.03203619466903</v>
       </c>
       <c r="AK30" s="24">
-        <v>49.8</v>
+        <v>83.94</v>
       </c>
       <c r="AL30" s="24">
-        <v>82.4923010642881</v>
+        <v>90.1405789515977</v>
       </c>
       <c r="AM30" s="24">
-        <v>-0.350298753723453</v>
+        <v>2.43411667891289</v>
       </c>
       <c r="AN30" s="24">
-        <v>44.15</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="AO30" s="24">
-        <v>91.6155900934218</v>
+        <v>97.0905479304527</v>
       </c>
       <c r="AP30" s="24">
-        <v>-0.12922839058921</v>
+        <v>2.42341997508251</v>
       </c>
       <c r="AQ30" s="24">
-        <v>47.84</v>
+        <v>90.47</v>
       </c>
       <c r="AR30" s="24">
-        <v>50.98</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="20">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s" s="21">
         <v>102</v>
@@ -5935,129 +5929,129 @@
         <v>2022</v>
       </c>
       <c r="E31" s="23">
-        <v>11.22</v>
+        <v>6.56</v>
       </c>
       <c r="F31" s="24">
-        <v>-0.424859070040061</v>
+        <v>0.681315219634136</v>
       </c>
       <c r="G31" s="24">
-        <v>42.9</v>
+        <v>61.38</v>
       </c>
       <c r="H31" s="24">
-        <v>50.67</v>
+        <v>51.36</v>
       </c>
       <c r="I31" s="24">
-        <v>-0.458206006498323</v>
+        <v>-0.365067250133231</v>
       </c>
       <c r="J31" s="24">
-        <v>42.35</v>
+        <v>43.9</v>
       </c>
       <c r="K31" s="24">
-        <v>49.74</v>
+        <v>52.47</v>
       </c>
       <c r="L31" s="24">
-        <v>0.346611752989416</v>
+        <v>0.822204494004482</v>
       </c>
       <c r="M31" s="24">
-        <v>55.79</v>
+        <v>63.73</v>
       </c>
       <c r="N31" s="24">
-        <v>46.15</v>
+        <v>61.15</v>
       </c>
       <c r="O31" s="24">
-        <v>-1.28901508186953</v>
+        <v>0.872621364406922</v>
       </c>
       <c r="P31" s="24">
-        <v>28.47</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="Q31" s="24">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="R31" s="24">
-        <v>0.201074065505332</v>
+        <v>-0.57359438725686</v>
       </c>
       <c r="S31" s="24">
-        <v>53.36</v>
+        <v>40.42</v>
       </c>
       <c r="T31" s="24">
-        <v>67.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="U31" s="24">
-        <v>-0.141041190428661</v>
+        <v>0.169884969407134</v>
       </c>
       <c r="V31" s="24">
-        <v>47.64</v>
+        <v>52.84</v>
       </c>
       <c r="W31" s="24">
-        <v>16.1</v>
+        <v>12.9</v>
       </c>
       <c r="X31" s="24">
-        <v>0.149942524737889</v>
+        <v>0.854381643728084</v>
       </c>
       <c r="Y31" s="24">
-        <v>52.5</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="Z31" s="24">
-        <v>30.4</v>
+        <v>35</v>
       </c>
       <c r="AA31" s="24">
-        <v>-0.965831459533521</v>
+        <v>0.155987072311514</v>
       </c>
       <c r="AB31" s="24">
-        <v>33.87</v>
+        <v>52.6</v>
       </c>
       <c r="AC31" s="24">
-        <v>34.2</v>
+        <v>28.8</v>
       </c>
       <c r="AD31" s="24">
-        <v>1.17448649425109</v>
+        <v>-0.124848776930441</v>
       </c>
       <c r="AE31" s="24">
-        <v>69.61</v>
+        <v>47.92</v>
       </c>
       <c r="AF31" s="24">
-        <v>19.2</v>
+        <v>23.3</v>
       </c>
       <c r="AG31" s="24">
-        <v>-0.09586332131625989</v>
+        <v>1.03626166357629</v>
       </c>
       <c r="AH31" s="24">
-        <v>48.4</v>
+        <v>67.31</v>
       </c>
       <c r="AI31" s="24">
-        <v>78.3154849680641</v>
+        <v>71.7109960492286</v>
       </c>
       <c r="AJ31" s="24">
-        <v>2.03203619466903</v>
+        <v>0.710412146145082</v>
       </c>
       <c r="AK31" s="24">
-        <v>83.94</v>
+        <v>61.86</v>
       </c>
       <c r="AL31" s="24">
-        <v>90.1405789515977</v>
+        <v>85.0859702660821</v>
       </c>
       <c r="AM31" s="24">
-        <v>2.43411667891289</v>
+        <v>0.593946821429046</v>
       </c>
       <c r="AN31" s="24">
-        <v>90.65000000000001</v>
+        <v>59.92</v>
       </c>
       <c r="AO31" s="24">
-        <v>97.0905479304527</v>
+        <v>89.03640517897939</v>
       </c>
       <c r="AP31" s="24">
-        <v>2.42341997508251</v>
+        <v>-1.33174946063036</v>
       </c>
       <c r="AQ31" s="24">
-        <v>90.47</v>
+        <v>27.76</v>
       </c>
       <c r="AR31" s="24">
-        <v>56.92</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="21">
         <v>104</v>
@@ -6069,129 +6063,129 @@
         <v>2022</v>
       </c>
       <c r="E32" s="23">
-        <v>6.56</v>
+        <v>8.17</v>
       </c>
       <c r="F32" s="24">
-        <v>0.681315219634136</v>
+        <v>0.299139123845411</v>
       </c>
       <c r="G32" s="24">
-        <v>61.38</v>
+        <v>55</v>
       </c>
       <c r="H32" s="24">
-        <v>51.36</v>
+        <v>51.29</v>
       </c>
       <c r="I32" s="24">
-        <v>-0.365067250133231</v>
+        <v>-0.374516109474618</v>
       </c>
       <c r="J32" s="24">
-        <v>43.9</v>
+        <v>43.75</v>
       </c>
       <c r="K32" s="24">
-        <v>52.47</v>
+        <v>51.93</v>
       </c>
       <c r="L32" s="24">
-        <v>0.822204494004482</v>
+        <v>0.728131204572931</v>
       </c>
       <c r="M32" s="24">
-        <v>63.73</v>
+        <v>62.16</v>
       </c>
       <c r="N32" s="24">
-        <v>61.15</v>
+        <v>54.58</v>
       </c>
       <c r="O32" s="24">
-        <v>0.872621364406922</v>
+        <v>-0.0741753990621656</v>
       </c>
       <c r="P32" s="24">
-        <v>64.56999999999999</v>
+        <v>48.76</v>
       </c>
       <c r="Q32" s="24">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="R32" s="24">
-        <v>-0.57359438725686</v>
+        <v>0.829183621799001</v>
       </c>
       <c r="S32" s="24">
-        <v>40.42</v>
+        <v>63.85</v>
       </c>
       <c r="T32" s="24">
-        <v>69.59999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="U32" s="24">
-        <v>0.169884969407134</v>
+        <v>-0.568564660202881</v>
       </c>
       <c r="V32" s="24">
-        <v>52.84</v>
+        <v>40.5</v>
       </c>
       <c r="W32" s="24">
-        <v>12.9</v>
+        <v>17.8</v>
       </c>
       <c r="X32" s="24">
-        <v>0.854381643728084</v>
+        <v>-0.224290757225652</v>
       </c>
       <c r="Y32" s="24">
-        <v>64.23999999999999</v>
+        <v>46.26</v>
       </c>
       <c r="Z32" s="24">
-        <v>35</v>
+        <v>36.3</v>
       </c>
       <c r="AA32" s="24">
-        <v>0.155987072311514</v>
+        <v>0.473022744354675</v>
       </c>
       <c r="AB32" s="24">
-        <v>52.6</v>
+        <v>57.9</v>
       </c>
       <c r="AC32" s="24">
-        <v>28.8</v>
+        <v>22.5</v>
       </c>
       <c r="AD32" s="24">
-        <v>-0.124848776930441</v>
+        <v>-1.64073992664223</v>
       </c>
       <c r="AE32" s="24">
-        <v>47.92</v>
+        <v>22.6</v>
       </c>
       <c r="AF32" s="24">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AG32" s="24">
-        <v>1.03626166357629</v>
+        <v>1.06387446808586</v>
       </c>
       <c r="AH32" s="24">
-        <v>67.31</v>
+        <v>67.77</v>
       </c>
       <c r="AI32" s="24">
-        <v>71.7109960492286</v>
+        <v>72.1983439438368</v>
       </c>
       <c r="AJ32" s="24">
-        <v>0.710412146145082</v>
+        <v>0.807935316435341</v>
       </c>
       <c r="AK32" s="24">
-        <v>61.86</v>
+        <v>63.49</v>
       </c>
       <c r="AL32" s="24">
-        <v>85.0859702660821</v>
+        <v>85.96598320901759</v>
       </c>
       <c r="AM32" s="24">
-        <v>0.593946821429046</v>
+        <v>0.914322421705679</v>
       </c>
       <c r="AN32" s="24">
-        <v>59.92</v>
+        <v>65.27</v>
       </c>
       <c r="AO32" s="24">
-        <v>89.03640517897939</v>
+        <v>93.01406309388069</v>
       </c>
       <c r="AP32" s="24">
-        <v>-1.33174946063036</v>
+        <v>0.522796688930553</v>
       </c>
       <c r="AQ32" s="24">
-        <v>27.76</v>
+        <v>58.73</v>
       </c>
       <c r="AR32" s="24">
-        <v>54.5</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s" s="21">
         <v>106</v>
@@ -6203,129 +6197,129 @@
         <v>2022</v>
       </c>
       <c r="E33" s="23">
-        <v>8.17</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F33" s="24">
-        <v>0.299139123845411</v>
+        <v>0.308634182125876</v>
       </c>
       <c r="G33" s="24">
-        <v>55</v>
+        <v>55.15</v>
       </c>
       <c r="H33" s="24">
-        <v>51.29</v>
+        <v>65.78</v>
       </c>
       <c r="I33" s="24">
-        <v>-0.374516109474618</v>
+        <v>1.58139777419231</v>
       </c>
       <c r="J33" s="24">
-        <v>43.75</v>
+        <v>76.41</v>
       </c>
       <c r="K33" s="24">
-        <v>51.93</v>
+        <v>37.17</v>
       </c>
       <c r="L33" s="24">
-        <v>0.728131204572931</v>
+        <v>-1.84320537322281</v>
       </c>
       <c r="M33" s="24">
-        <v>62.16</v>
+        <v>19.22</v>
       </c>
       <c r="N33" s="24">
-        <v>54.58</v>
+        <v>49.38</v>
       </c>
       <c r="O33" s="24">
-        <v>-0.0741753990621656</v>
+        <v>-0.823542700438003</v>
       </c>
       <c r="P33" s="24">
+        <v>36.25</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="R33" s="24">
+        <v>-0.406098505578548</v>
+      </c>
+      <c r="S33" s="24">
+        <v>43.22</v>
+      </c>
+      <c r="T33" s="24">
+        <v>70.2</v>
+      </c>
+      <c r="U33" s="24">
+        <v>0.247616509366084</v>
+      </c>
+      <c r="V33" s="24">
+        <v>54.14</v>
+      </c>
+      <c r="W33" s="24">
+        <v>19.6</v>
+      </c>
+      <c r="X33" s="24">
+        <v>-0.620537761657637</v>
+      </c>
+      <c r="Y33" s="24">
+        <v>39.66</v>
+      </c>
+      <c r="Z33" s="24">
+        <v>30.4</v>
+      </c>
+      <c r="AA33" s="24">
+        <v>-0.965831459533521</v>
+      </c>
+      <c r="AB33" s="24">
+        <v>33.87</v>
+      </c>
+      <c r="AC33" s="24">
+        <v>31.1</v>
+      </c>
+      <c r="AD33" s="24">
+        <v>0.428571801535769</v>
+      </c>
+      <c r="AE33" s="24">
+        <v>57.16</v>
+      </c>
+      <c r="AF33" s="24">
+        <v>18.9</v>
+      </c>
+      <c r="AG33" s="24">
+        <v>-0.178701734844983</v>
+      </c>
+      <c r="AH33" s="24">
+        <v>47.02</v>
+      </c>
+      <c r="AI33" s="24">
+        <v>67.7904321899594</v>
+      </c>
+      <c r="AJ33" s="24">
+        <v>-0.074131751779671</v>
+      </c>
+      <c r="AK33" s="24">
         <v>48.76</v>
       </c>
-      <c r="Q33" s="24">
-        <v>7.6</v>
-      </c>
-      <c r="R33" s="24">
-        <v>0.829183621799001</v>
-      </c>
-      <c r="S33" s="24">
-        <v>63.85</v>
-      </c>
-      <c r="T33" s="24">
-        <v>63.9</v>
-      </c>
-      <c r="U33" s="24">
-        <v>-0.568564660202881</v>
-      </c>
-      <c r="V33" s="24">
-        <v>40.5</v>
-      </c>
-      <c r="W33" s="24">
-        <v>17.8</v>
-      </c>
-      <c r="X33" s="24">
-        <v>-0.224290757225652</v>
-      </c>
-      <c r="Y33" s="24">
-        <v>46.26</v>
-      </c>
-      <c r="Z33" s="24">
-        <v>36.3</v>
-      </c>
-      <c r="AA33" s="24">
-        <v>0.473022744354675</v>
-      </c>
-      <c r="AB33" s="24">
-        <v>57.9</v>
-      </c>
-      <c r="AC33" s="24">
-        <v>22.5</v>
-      </c>
-      <c r="AD33" s="24">
-        <v>-1.64073992664223</v>
-      </c>
-      <c r="AE33" s="24">
-        <v>22.6</v>
-      </c>
-      <c r="AF33" s="24">
-        <v>23.4</v>
-      </c>
-      <c r="AG33" s="24">
-        <v>1.06387446808586</v>
-      </c>
-      <c r="AH33" s="24">
-        <v>67.77</v>
-      </c>
-      <c r="AI33" s="24">
-        <v>72.1983439438368</v>
-      </c>
-      <c r="AJ33" s="24">
-        <v>0.807935316435341</v>
-      </c>
-      <c r="AK33" s="24">
-        <v>63.49</v>
-      </c>
       <c r="AL33" s="24">
-        <v>85.96598320901759</v>
+        <v>82.2724220365844</v>
       </c>
       <c r="AM33" s="24">
-        <v>0.914322421705679</v>
+        <v>-0.430347434886973</v>
       </c>
       <c r="AN33" s="24">
-        <v>65.27</v>
+        <v>42.81</v>
       </c>
       <c r="AO33" s="24">
-        <v>93.01406309388069</v>
+        <v>94.3837946989331</v>
       </c>
       <c r="AP33" s="24">
-        <v>0.522796688930553</v>
+        <v>1.16142135913296</v>
       </c>
       <c r="AQ33" s="24">
-        <v>58.73</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="AR33" s="24">
-        <v>53.54</v>
+        <v>47.93</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="21">
         <v>108</v>
@@ -6337,129 +6331,129 @@
         <v>2022</v>
       </c>
       <c r="E34" s="23">
-        <v>8.130000000000001</v>
+        <v>4.77</v>
       </c>
       <c r="F34" s="24">
-        <v>0.308634182125876</v>
+        <v>1.10621907768495</v>
       </c>
       <c r="G34" s="24">
-        <v>55.15</v>
+        <v>68.47</v>
       </c>
       <c r="H34" s="24">
-        <v>65.78</v>
+        <v>62.12</v>
       </c>
       <c r="I34" s="24">
-        <v>1.58139777419231</v>
+        <v>1.08735741434269</v>
       </c>
       <c r="J34" s="24">
-        <v>76.41</v>
+        <v>68.16</v>
       </c>
       <c r="K34" s="24">
-        <v>37.17</v>
+        <v>45.06</v>
       </c>
       <c r="L34" s="24">
-        <v>-1.84320537322281</v>
+        <v>-0.468690088750698</v>
       </c>
       <c r="M34" s="24">
-        <v>19.22</v>
+        <v>42.17</v>
       </c>
       <c r="N34" s="24">
-        <v>49.38</v>
+        <v>50.13</v>
       </c>
       <c r="O34" s="24">
-        <v>-0.823542700438003</v>
+        <v>-0.71546087812418</v>
       </c>
       <c r="P34" s="24">
-        <v>36.25</v>
+        <v>38.05</v>
       </c>
       <c r="Q34" s="24">
-        <v>1.7</v>
+        <v>21.7</v>
       </c>
       <c r="R34" s="24">
-        <v>-0.406098505578548</v>
+        <v>3</v>
       </c>
       <c r="S34" s="24">
-        <v>43.22</v>
+        <v>100</v>
       </c>
       <c r="T34" s="24">
-        <v>70.2</v>
+        <v>49.3</v>
       </c>
       <c r="U34" s="24">
-        <v>0.247616509366084</v>
+        <v>-2.46003213253731</v>
       </c>
       <c r="V34" s="24">
-        <v>54.14</v>
+        <v>8.92</v>
       </c>
       <c r="W34" s="24">
-        <v>19.6</v>
+        <v>23.1</v>
       </c>
       <c r="X34" s="24">
-        <v>-0.620537761657637</v>
+        <v>-1.39101804805316</v>
       </c>
       <c r="Y34" s="24">
-        <v>39.66</v>
+        <v>26.82</v>
       </c>
       <c r="Z34" s="24">
-        <v>30.4</v>
+        <v>31.8</v>
       </c>
       <c r="AA34" s="24">
-        <v>-0.965831459533521</v>
+        <v>-0.624408428102423</v>
       </c>
       <c r="AB34" s="24">
-        <v>33.87</v>
+        <v>39.57</v>
       </c>
       <c r="AC34" s="24">
-        <v>31.1</v>
+        <v>23.5</v>
       </c>
       <c r="AD34" s="24">
-        <v>0.428571801535769</v>
+        <v>-1.40012228383084</v>
       </c>
       <c r="AE34" s="24">
-        <v>57.16</v>
+        <v>26.62</v>
       </c>
       <c r="AF34" s="24">
-        <v>18.9</v>
+        <v>21.5</v>
       </c>
       <c r="AG34" s="24">
-        <v>-0.178701734844983</v>
+        <v>0.539231182403951</v>
       </c>
       <c r="AH34" s="24">
-        <v>47.02</v>
+        <v>59.01</v>
       </c>
       <c r="AI34" s="24">
-        <v>67.7904321899594</v>
+        <v>64.0628542527773</v>
       </c>
       <c r="AJ34" s="24">
-        <v>-0.074131751779671</v>
+        <v>-0.82005724352776</v>
       </c>
       <c r="AK34" s="24">
-        <v>48.76</v>
+        <v>36.31</v>
       </c>
       <c r="AL34" s="24">
-        <v>82.2724220365844</v>
+        <v>81.74995848489191</v>
       </c>
       <c r="AM34" s="24">
-        <v>-0.430347434886973</v>
+        <v>-0.620554380523243</v>
       </c>
       <c r="AN34" s="24">
-        <v>42.81</v>
+        <v>39.64</v>
       </c>
       <c r="AO34" s="24">
-        <v>94.3837946989331</v>
+        <v>90.1503760076301</v>
       </c>
       <c r="AP34" s="24">
-        <v>1.16142135913296</v>
+        <v>-0.812370882784856</v>
       </c>
       <c r="AQ34" s="24">
-        <v>69.40000000000001</v>
+        <v>36.43</v>
       </c>
       <c r="AR34" s="24">
-        <v>47.93</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="21">
         <v>110</v>
@@ -6471,129 +6465,129 @@
         <v>2022</v>
       </c>
       <c r="E35" s="23">
-        <v>4.77</v>
+        <v>13.63</v>
       </c>
       <c r="F35" s="24">
-        <v>1.10621907768495</v>
+        <v>-0.99693633143809</v>
       </c>
       <c r="G35" s="24">
-        <v>68.47</v>
+        <v>33.35</v>
       </c>
       <c r="H35" s="24">
-        <v>62.12</v>
+        <v>51.06</v>
       </c>
       <c r="I35" s="24">
-        <v>1.08735741434269</v>
+        <v>-0.405562361596314</v>
       </c>
       <c r="J35" s="24">
-        <v>68.16</v>
+        <v>43.23</v>
       </c>
       <c r="K35" s="24">
-        <v>45.06</v>
+        <v>48.11</v>
       </c>
       <c r="L35" s="24">
-        <v>-0.468690088750698</v>
+        <v>0.0626497867423246</v>
       </c>
       <c r="M35" s="24">
-        <v>42.17</v>
+        <v>51.05</v>
       </c>
       <c r="N35" s="24">
-        <v>50.13</v>
+        <v>55.12</v>
       </c>
       <c r="O35" s="24">
-        <v>-0.71546087812418</v>
+        <v>0.0036435130037866</v>
       </c>
       <c r="P35" s="24">
-        <v>38.05</v>
+        <v>50.06</v>
       </c>
       <c r="Q35" s="24">
-        <v>21.7</v>
+        <v>1.3</v>
       </c>
       <c r="R35" s="24">
-        <v>3</v>
+        <v>-0.489846446417704</v>
       </c>
       <c r="S35" s="24">
-        <v>100</v>
+        <v>41.82</v>
       </c>
       <c r="T35" s="24">
-        <v>49.3</v>
+        <v>71.7</v>
       </c>
       <c r="U35" s="24">
-        <v>-2.46003213253731</v>
+        <v>0.441945359263457</v>
       </c>
       <c r="V35" s="24">
-        <v>8.92</v>
+        <v>57.38</v>
       </c>
       <c r="W35" s="24">
-        <v>23.1</v>
+        <v>18.9</v>
       </c>
       <c r="X35" s="24">
-        <v>-1.39101804805316</v>
+        <v>-0.466441704378531</v>
       </c>
       <c r="Y35" s="24">
-        <v>26.82</v>
+        <v>42.23</v>
       </c>
       <c r="Z35" s="24">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="AA35" s="24">
-        <v>-0.624408428102423</v>
+        <v>-0.551246349938616</v>
       </c>
       <c r="AB35" s="24">
-        <v>39.57</v>
+        <v>40.79</v>
       </c>
       <c r="AC35" s="24">
-        <v>23.5</v>
+        <v>30.6</v>
       </c>
       <c r="AD35" s="24">
-        <v>-1.40012228383084</v>
+        <v>0.308262980130071</v>
       </c>
       <c r="AE35" s="24">
-        <v>26.62</v>
+        <v>55.15</v>
       </c>
       <c r="AF35" s="24">
-        <v>21.5</v>
+        <v>18.4</v>
       </c>
       <c r="AG35" s="24">
-        <v>0.539231182403951</v>
+        <v>-0.316765757392855</v>
       </c>
       <c r="AH35" s="24">
-        <v>59.01</v>
+        <v>44.71</v>
       </c>
       <c r="AI35" s="24">
-        <v>64.0628542527773</v>
+        <v>68.3672092888807</v>
       </c>
       <c r="AJ35" s="24">
-        <v>-0.82005724352776</v>
+        <v>0.0412870934845391</v>
       </c>
       <c r="AK35" s="24">
-        <v>36.31</v>
+        <v>50.69</v>
       </c>
       <c r="AL35" s="24">
-        <v>81.74995848489191</v>
+        <v>83.5339398599066</v>
       </c>
       <c r="AM35" s="24">
-        <v>-0.620554380523243</v>
+        <v>0.0289180033670924</v>
       </c>
       <c r="AN35" s="24">
-        <v>39.64</v>
+        <v>50.48</v>
       </c>
       <c r="AO35" s="24">
-        <v>90.1503760076301</v>
+        <v>93.1116215518941</v>
       </c>
       <c r="AP35" s="24">
-        <v>-0.812370882784856</v>
+        <v>0.568282416093784</v>
       </c>
       <c r="AQ35" s="24">
-        <v>36.43</v>
+        <v>59.49</v>
       </c>
       <c r="AR35" s="24">
-        <v>45.4</v>
+        <v>47.73</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="20">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s" s="21">
         <v>112</v>
@@ -6605,85 +6599,85 @@
         <v>2022</v>
       </c>
       <c r="E36" s="23">
-        <v>13.63</v>
+        <v>10.93</v>
       </c>
       <c r="F36" s="24">
-        <v>-0.99693633143809</v>
+        <v>-0.356019897506688</v>
       </c>
       <c r="G36" s="24">
-        <v>33.35</v>
+        <v>44.05</v>
       </c>
       <c r="H36" s="24">
-        <v>51.06</v>
+        <v>43.32</v>
       </c>
       <c r="I36" s="24">
-        <v>-0.405562361596314</v>
+        <v>-1.45033623734387</v>
       </c>
       <c r="J36" s="24">
-        <v>43.23</v>
+        <v>25.78</v>
       </c>
       <c r="K36" s="24">
-        <v>48.11</v>
+        <v>56.37</v>
       </c>
       <c r="L36" s="24">
-        <v>0.0626497867423246</v>
+        <v>1.50162269545458</v>
       </c>
       <c r="M36" s="24">
-        <v>51.05</v>
+        <v>75.08</v>
       </c>
       <c r="N36" s="24">
-        <v>55.12</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="O36" s="24">
-        <v>0.0036435130037866</v>
+        <v>1.47787956936433</v>
       </c>
       <c r="P36" s="24">
-        <v>50.06</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="Q36" s="24">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="R36" s="24">
-        <v>-0.489846446417704</v>
+        <v>-0.427035490788337</v>
       </c>
       <c r="S36" s="24">
-        <v>41.82</v>
+        <v>42.87</v>
       </c>
       <c r="T36" s="24">
-        <v>71.7</v>
+        <v>73</v>
       </c>
       <c r="U36" s="24">
-        <v>0.441945359263457</v>
+        <v>0.610363695841179</v>
       </c>
       <c r="V36" s="24">
-        <v>57.38</v>
+        <v>60.19</v>
       </c>
       <c r="W36" s="24">
-        <v>18.9</v>
+        <v>12.8</v>
       </c>
       <c r="X36" s="24">
-        <v>-0.466441704378531</v>
+        <v>0.876395366196528</v>
       </c>
       <c r="Y36" s="24">
-        <v>42.23</v>
+        <v>64.61</v>
       </c>
       <c r="Z36" s="24">
-        <v>32.1</v>
+        <v>33.7</v>
       </c>
       <c r="AA36" s="24">
-        <v>-0.551246349938616</v>
+        <v>-0.161048599731647</v>
       </c>
       <c r="AB36" s="24">
-        <v>40.79</v>
+        <v>47.31</v>
       </c>
       <c r="AC36" s="24">
-        <v>30.6</v>
+        <v>35.1</v>
       </c>
       <c r="AD36" s="24">
-        <v>0.308262980130071</v>
+        <v>1.39104237278135</v>
       </c>
       <c r="AE36" s="24">
-        <v>55.15</v>
+        <v>73.23</v>
       </c>
       <c r="AF36" s="24">
         <v>18.4</v>
@@ -6695,39 +6689,39 @@
         <v>44.71</v>
       </c>
       <c r="AI36" s="24">
-        <v>68.3672092888807</v>
+        <v>64.5059995622841</v>
       </c>
       <c r="AJ36" s="24">
-        <v>0.0412870934845391</v>
+        <v>-0.731379451009327</v>
       </c>
       <c r="AK36" s="24">
-        <v>50.69</v>
+        <v>37.79</v>
       </c>
       <c r="AL36" s="24">
-        <v>83.5339398599066</v>
+        <v>81.5655003758647</v>
       </c>
       <c r="AM36" s="24">
-        <v>0.0289180033670924</v>
+        <v>-0.6877077989813341</v>
       </c>
       <c r="AN36" s="24">
-        <v>50.48</v>
+        <v>38.52</v>
       </c>
       <c r="AO36" s="24">
-        <v>93.1116215518941</v>
+        <v>87.4861230329042</v>
       </c>
       <c r="AP36" s="24">
-        <v>0.568282416093784</v>
+        <v>-2.05455414777202</v>
       </c>
       <c r="AQ36" s="24">
-        <v>59.49</v>
+        <v>15.69</v>
       </c>
       <c r="AR36" s="24">
-        <v>47.73</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s" s="21">
         <v>114</v>
@@ -6739,129 +6733,129 @@
         <v>2022</v>
       </c>
       <c r="E37" s="23">
-        <v>10.93</v>
+        <v>7.31</v>
       </c>
       <c r="F37" s="24">
-        <v>-0.356019897506688</v>
+        <v>0.503282876875413</v>
       </c>
       <c r="G37" s="24">
-        <v>44.05</v>
+        <v>58.4</v>
       </c>
       <c r="H37" s="24">
-        <v>43.32</v>
+        <v>58.89</v>
       </c>
       <c r="I37" s="24">
-        <v>-1.45033623734387</v>
+        <v>0.651360047590161</v>
       </c>
       <c r="J37" s="24">
-        <v>25.78</v>
+        <v>60.88</v>
       </c>
       <c r="K37" s="24">
-        <v>56.37</v>
+        <v>42.78</v>
       </c>
       <c r="L37" s="24">
-        <v>1.50162269545458</v>
+        <v>-0.865888421906138</v>
       </c>
       <c r="M37" s="24">
-        <v>75.08</v>
+        <v>35.54</v>
       </c>
       <c r="N37" s="24">
-        <v>65.34999999999999</v>
+        <v>54.66</v>
       </c>
       <c r="O37" s="24">
-        <v>1.47787956936433</v>
+        <v>-0.0626466713486914</v>
       </c>
       <c r="P37" s="24">
-        <v>74.68000000000001</v>
+        <v>48.95</v>
       </c>
       <c r="Q37" s="24">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="R37" s="24">
-        <v>-0.427035490788337</v>
+        <v>-0.133917697851292</v>
       </c>
       <c r="S37" s="24">
-        <v>42.87</v>
+        <v>47.76</v>
       </c>
       <c r="T37" s="24">
-        <v>73</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="U37" s="24">
-        <v>0.610363695841179</v>
+        <v>0.364213819304507</v>
       </c>
       <c r="V37" s="24">
-        <v>60.19</v>
+        <v>56.08</v>
       </c>
       <c r="W37" s="24">
-        <v>12.8</v>
+        <v>16.6</v>
       </c>
       <c r="X37" s="24">
-        <v>0.876395366196528</v>
+        <v>0.0398739123956706</v>
       </c>
       <c r="Y37" s="24">
-        <v>64.61</v>
+        <v>50.66</v>
       </c>
       <c r="Z37" s="24">
-        <v>33.7</v>
+        <v>40.9</v>
       </c>
       <c r="AA37" s="24">
-        <v>-0.161048599731647</v>
+        <v>1.59484127619971</v>
       </c>
       <c r="AB37" s="24">
-        <v>47.31</v>
+        <v>76.63</v>
       </c>
       <c r="AC37" s="24">
-        <v>35.1</v>
+        <v>27.2</v>
       </c>
       <c r="AD37" s="24">
-        <v>1.39104237278135</v>
+        <v>-0.5098370054286741</v>
       </c>
       <c r="AE37" s="24">
-        <v>73.23</v>
+        <v>41.49</v>
       </c>
       <c r="AF37" s="24">
-        <v>18.4</v>
+        <v>15.3</v>
       </c>
       <c r="AG37" s="24">
-        <v>-0.316765757392855</v>
+        <v>-1.17276269718966</v>
       </c>
       <c r="AH37" s="24">
-        <v>44.71</v>
+        <v>30.41</v>
       </c>
       <c r="AI37" s="24">
-        <v>64.5059995622841</v>
+        <v>65.1940428209022</v>
       </c>
       <c r="AJ37" s="24">
-        <v>-0.731379451009327</v>
+        <v>-0.593695138386574</v>
       </c>
       <c r="AK37" s="24">
-        <v>37.79</v>
+        <v>40.09</v>
       </c>
       <c r="AL37" s="24">
-        <v>81.5655003758647</v>
+        <v>82.3943677908606</v>
       </c>
       <c r="AM37" s="24">
-        <v>-0.6877077989813341</v>
+        <v>-0.385952128498522</v>
       </c>
       <c r="AN37" s="24">
-        <v>38.52</v>
+        <v>43.55</v>
       </c>
       <c r="AO37" s="24">
-        <v>87.4861230329042</v>
+        <v>90.95798326080759</v>
       </c>
       <c r="AP37" s="24">
-        <v>-2.05455414777202</v>
+        <v>-0.435831483525091</v>
       </c>
       <c r="AQ37" s="24">
-        <v>15.69</v>
+        <v>42.72</v>
       </c>
       <c r="AR37" s="24">
-        <v>49.58</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s" s="21">
         <v>116</v>
@@ -6873,129 +6867,129 @@
         <v>2022</v>
       </c>
       <c r="E38" s="23">
-        <v>7.31</v>
+        <v>19.19</v>
       </c>
       <c r="F38" s="24">
-        <v>0.503282876875413</v>
+        <v>-2.31674943242275</v>
       </c>
       <c r="G38" s="24">
-        <v>58.4</v>
+        <v>11.31</v>
       </c>
       <c r="H38" s="24">
-        <v>58.89</v>
+        <v>44.23</v>
       </c>
       <c r="I38" s="24">
-        <v>0.651360047590161</v>
+        <v>-1.32750106590585</v>
       </c>
       <c r="J38" s="24">
-        <v>60.88</v>
+        <v>27.83</v>
       </c>
       <c r="K38" s="24">
-        <v>42.78</v>
+        <v>46.81</v>
       </c>
       <c r="L38" s="24">
-        <v>-0.865888421906138</v>
+        <v>-0.163822947074373</v>
       </c>
       <c r="M38" s="24">
-        <v>35.54</v>
+        <v>47.26</v>
       </c>
       <c r="N38" s="24">
-        <v>54.66</v>
+        <v>57.38</v>
       </c>
       <c r="O38" s="24">
-        <v>-0.0626466713486914</v>
+        <v>0.32933007090944</v>
       </c>
       <c r="P38" s="24">
-        <v>48.95</v>
+        <v>55.5</v>
       </c>
       <c r="Q38" s="24">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="R38" s="24">
-        <v>-0.133917697851292</v>
+        <v>-0.657342328096016</v>
       </c>
       <c r="S38" s="24">
-        <v>47.76</v>
+        <v>39.02</v>
       </c>
       <c r="T38" s="24">
-        <v>71.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="U38" s="24">
-        <v>0.364213819304507</v>
+        <v>0.856513572377852</v>
       </c>
       <c r="V38" s="24">
-        <v>56.08</v>
+        <v>64.3</v>
       </c>
       <c r="W38" s="24">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="X38" s="24">
-        <v>0.0398739123956706</v>
+        <v>0.171956247206333</v>
       </c>
       <c r="Y38" s="24">
-        <v>50.66</v>
+        <v>52.87</v>
       </c>
       <c r="Z38" s="24">
-        <v>40.9</v>
+        <v>36</v>
       </c>
       <c r="AA38" s="24">
-        <v>1.59484127619971</v>
+        <v>0.399860666190869</v>
       </c>
       <c r="AB38" s="24">
-        <v>76.63</v>
+        <v>56.68</v>
       </c>
       <c r="AC38" s="24">
-        <v>27.2</v>
+        <v>31.3</v>
       </c>
       <c r="AD38" s="24">
-        <v>-0.5098370054286741</v>
+        <v>0.476695330098048</v>
       </c>
       <c r="AE38" s="24">
-        <v>41.49</v>
+        <v>57.96</v>
       </c>
       <c r="AF38" s="24">
-        <v>15.3</v>
+        <v>16.7</v>
       </c>
       <c r="AG38" s="24">
-        <v>-1.17276269718966</v>
+        <v>-0.786183434055619</v>
       </c>
       <c r="AH38" s="24">
-        <v>30.41</v>
+        <v>36.87</v>
       </c>
       <c r="AI38" s="24">
-        <v>65.1940428209022</v>
+        <v>65.81450931964019</v>
       </c>
       <c r="AJ38" s="24">
-        <v>-0.593695138386574</v>
+        <v>-0.469533608840064</v>
       </c>
       <c r="AK38" s="24">
-        <v>40.09</v>
+        <v>42.16</v>
       </c>
       <c r="AL38" s="24">
-        <v>82.3943677908606</v>
+        <v>82.6590334637927</v>
       </c>
       <c r="AM38" s="24">
-        <v>-0.385952128498522</v>
+        <v>-0.289598518567066</v>
       </c>
       <c r="AN38" s="24">
-        <v>43.55</v>
+        <v>45.16</v>
       </c>
       <c r="AO38" s="24">
-        <v>90.95798326080759</v>
+        <v>93.1150205609588</v>
       </c>
       <c r="AP38" s="24">
-        <v>-0.435831483525091</v>
+        <v>0.569867172578156</v>
       </c>
       <c r="AQ38" s="24">
-        <v>42.72</v>
+        <v>59.52</v>
       </c>
       <c r="AR38" s="24">
-        <v>48.7</v>
+        <v>45.88</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s" s="21">
         <v>118</v>
@@ -7007,129 +7001,129 @@
         <v>2022</v>
       </c>
       <c r="E39" s="23">
-        <v>19.19</v>
+        <v>7.05</v>
       </c>
       <c r="F39" s="24">
-        <v>-2.31674943242275</v>
+        <v>0.565000755698437</v>
       </c>
       <c r="G39" s="24">
-        <v>11.31</v>
+        <v>59.44</v>
       </c>
       <c r="H39" s="24">
-        <v>44.23</v>
+        <v>57.82</v>
       </c>
       <c r="I39" s="24">
-        <v>-1.32750106590585</v>
+        <v>0.506927483371831</v>
       </c>
       <c r="J39" s="24">
-        <v>27.83</v>
+        <v>58.47</v>
       </c>
       <c r="K39" s="24">
-        <v>46.81</v>
+        <v>46.35</v>
       </c>
       <c r="L39" s="24">
-        <v>-0.163822947074373</v>
+        <v>-0.243959452886436</v>
       </c>
       <c r="M39" s="24">
-        <v>47.26</v>
+        <v>45.93</v>
       </c>
       <c r="N39" s="24">
-        <v>57.38</v>
+        <v>54.45</v>
       </c>
       <c r="O39" s="24">
-        <v>0.32933007090944</v>
+        <v>-0.0929095815965609</v>
       </c>
       <c r="P39" s="24">
-        <v>55.5</v>
+        <v>48.45</v>
       </c>
       <c r="Q39" s="24">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="R39" s="24">
-        <v>-0.657342328096016</v>
+        <v>0.222011050715121</v>
       </c>
       <c r="S39" s="24">
-        <v>39.02</v>
+        <v>53.71</v>
       </c>
       <c r="T39" s="24">
-        <v>74.90000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="U39" s="24">
-        <v>0.856513572377852</v>
+        <v>-0.827669793399378</v>
       </c>
       <c r="V39" s="24">
-        <v>64.3</v>
+        <v>36.18</v>
       </c>
       <c r="W39" s="24">
-        <v>16</v>
+        <v>12.9</v>
       </c>
       <c r="X39" s="24">
-        <v>0.171956247206333</v>
+        <v>0.854381643728084</v>
       </c>
       <c r="Y39" s="24">
-        <v>52.87</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="Z39" s="24">
-        <v>36</v>
+        <v>29.2</v>
       </c>
       <c r="AA39" s="24">
-        <v>0.399860666190869</v>
+        <v>-1.25847977218875</v>
       </c>
       <c r="AB39" s="24">
-        <v>56.68</v>
+        <v>28.98</v>
       </c>
       <c r="AC39" s="24">
-        <v>31.3</v>
+        <v>36.6</v>
       </c>
       <c r="AD39" s="24">
-        <v>0.476695330098048</v>
+        <v>1.75196883699844</v>
       </c>
       <c r="AE39" s="24">
-        <v>57.96</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="AF39" s="24">
-        <v>16.7</v>
+        <v>21.2</v>
       </c>
       <c r="AG39" s="24">
-        <v>-0.786183434055619</v>
+        <v>0.456392768875228</v>
       </c>
       <c r="AH39" s="24">
-        <v>36.87</v>
+        <v>57.62</v>
       </c>
       <c r="AI39" s="24">
-        <v>65.81450931964019</v>
+        <v>73.3775946522384</v>
       </c>
       <c r="AJ39" s="24">
-        <v>-0.469533608840064</v>
+        <v>1.04391513480064</v>
       </c>
       <c r="AK39" s="24">
-        <v>42.16</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="AL39" s="24">
-        <v>82.6590334637927</v>
+        <v>86.0030796013839</v>
       </c>
       <c r="AM39" s="24">
-        <v>-0.289598518567066</v>
+        <v>0.927827653722846</v>
       </c>
       <c r="AN39" s="24">
-        <v>45.16</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="AO39" s="24">
-        <v>93.1150205609588</v>
+        <v>91.50899815879259</v>
       </c>
       <c r="AP39" s="24">
-        <v>0.569867172578156</v>
+        <v>-0.178925892528803</v>
       </c>
       <c r="AQ39" s="24">
-        <v>59.52</v>
+        <v>47.01</v>
       </c>
       <c r="AR39" s="24">
-        <v>45.88</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="20">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s" s="21">
         <v>120</v>
@@ -7141,129 +7135,129 @@
         <v>2022</v>
       </c>
       <c r="E40" s="23">
-        <v>7.05</v>
+        <v>6.18</v>
       </c>
       <c r="F40" s="24">
-        <v>0.565000755698437</v>
+        <v>0.771518273298555</v>
       </c>
       <c r="G40" s="24">
-        <v>59.44</v>
+        <v>62.88</v>
       </c>
       <c r="H40" s="24">
-        <v>57.82</v>
+        <v>58.82</v>
       </c>
       <c r="I40" s="24">
-        <v>0.506927483371831</v>
+        <v>0.641911188248775</v>
       </c>
       <c r="J40" s="24">
-        <v>58.47</v>
+        <v>60.72</v>
       </c>
       <c r="K40" s="24">
-        <v>46.35</v>
+        <v>47.73</v>
       </c>
       <c r="L40" s="24">
-        <v>-0.243959452886436</v>
+        <v>-0.0035499354502492</v>
       </c>
       <c r="M40" s="24">
-        <v>45.93</v>
+        <v>49.94</v>
       </c>
       <c r="N40" s="24">
-        <v>54.45</v>
+        <v>60.27</v>
       </c>
       <c r="O40" s="24">
-        <v>-0.0929095815965609</v>
+        <v>0.745805359558704</v>
       </c>
       <c r="P40" s="24">
-        <v>48.45</v>
+        <v>62.45</v>
       </c>
       <c r="Q40" s="24">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="R40" s="24">
-        <v>0.222011050715121</v>
+        <v>0.515128843652166</v>
       </c>
       <c r="S40" s="24">
-        <v>53.71</v>
+        <v>58.6</v>
       </c>
       <c r="T40" s="24">
-        <v>61.9</v>
+        <v>65.2</v>
       </c>
       <c r="U40" s="24">
-        <v>-0.827669793399378</v>
+        <v>-0.400146323625158</v>
       </c>
       <c r="V40" s="24">
-        <v>36.18</v>
+        <v>43.32</v>
       </c>
       <c r="W40" s="24">
-        <v>12.9</v>
+        <v>16.2</v>
       </c>
       <c r="X40" s="24">
-        <v>0.854381643728084</v>
+        <v>0.127928802269445</v>
       </c>
       <c r="Y40" s="24">
-        <v>64.23999999999999</v>
+        <v>52.13</v>
       </c>
       <c r="Z40" s="24">
-        <v>29.2</v>
+        <v>43.2</v>
       </c>
       <c r="AA40" s="24">
-        <v>-1.25847977218875</v>
+        <v>2.15575054212223</v>
       </c>
       <c r="AB40" s="24">
-        <v>28.98</v>
+        <v>86</v>
       </c>
       <c r="AC40" s="24">
-        <v>36.6</v>
+        <v>23.7</v>
       </c>
       <c r="AD40" s="24">
-        <v>1.75196883699844</v>
+        <v>-1.35199875526856</v>
       </c>
       <c r="AE40" s="24">
-        <v>79.26000000000001</v>
+        <v>27.42</v>
       </c>
       <c r="AF40" s="24">
-        <v>21.2</v>
+        <v>16.8</v>
       </c>
       <c r="AG40" s="24">
-        <v>0.456392768875228</v>
+        <v>-0.758570629546045</v>
       </c>
       <c r="AH40" s="24">
-        <v>57.62</v>
+        <v>37.33</v>
       </c>
       <c r="AI40" s="24">
-        <v>73.3775946522384</v>
+        <v>65.603253397427</v>
       </c>
       <c r="AJ40" s="24">
-        <v>1.04391513480064</v>
+        <v>-0.511808024108413</v>
       </c>
       <c r="AK40" s="24">
-        <v>67.43000000000001</v>
+        <v>41.45</v>
       </c>
       <c r="AL40" s="24">
-        <v>86.0030796013839</v>
+        <v>81.13690760166109</v>
       </c>
       <c r="AM40" s="24">
-        <v>0.927827653722846</v>
+        <v>-0.843740353288632</v>
       </c>
       <c r="AN40" s="24">
-        <v>65.48999999999999</v>
+        <v>35.91</v>
       </c>
       <c r="AO40" s="24">
-        <v>91.50899815879259</v>
+        <v>90.5117420429025</v>
       </c>
       <c r="AP40" s="24">
-        <v>-0.178925892528803</v>
+        <v>-0.643887316919151</v>
       </c>
       <c r="AQ40" s="24">
-        <v>47.01</v>
+        <v>39.25</v>
       </c>
       <c r="AR40" s="24">
-        <v>54.79</v>
+        <v>50.57</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="20">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s" s="21">
         <v>122</v>
@@ -7275,129 +7269,129 @@
         <v>2022</v>
       </c>
       <c r="E41" s="23">
-        <v>6.18</v>
+        <v>3.62</v>
       </c>
       <c r="F41" s="24">
-        <v>0.771518273298555</v>
+        <v>1.37920200324833</v>
       </c>
       <c r="G41" s="24">
-        <v>62.88</v>
+        <v>73.03</v>
       </c>
       <c r="H41" s="24">
-        <v>58.82</v>
+        <v>60.76</v>
       </c>
       <c r="I41" s="24">
-        <v>0.641911188248775</v>
+        <v>0.903779575710047</v>
       </c>
       <c r="J41" s="24">
-        <v>60.72</v>
+        <v>65.09</v>
       </c>
       <c r="K41" s="24">
-        <v>47.73</v>
+        <v>45.26</v>
       </c>
       <c r="L41" s="24">
-        <v>-0.0035499354502492</v>
+        <v>-0.433848129701976</v>
       </c>
       <c r="M41" s="24">
-        <v>49.94</v>
+        <v>42.75</v>
       </c>
       <c r="N41" s="24">
-        <v>60.27</v>
+        <v>49.08</v>
       </c>
       <c r="O41" s="24">
-        <v>0.745805359558704</v>
+        <v>-0.866775429363533</v>
       </c>
       <c r="P41" s="24">
-        <v>62.45</v>
+        <v>35.52</v>
       </c>
       <c r="Q41" s="24">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="R41" s="24">
-        <v>0.515128843652166</v>
+        <v>-0.008295786592558</v>
       </c>
       <c r="S41" s="24">
-        <v>58.6</v>
+        <v>49.86</v>
       </c>
       <c r="T41" s="24">
-        <v>65.2</v>
+        <v>71</v>
       </c>
       <c r="U41" s="24">
-        <v>-0.400146323625158</v>
+        <v>0.351258562644683</v>
       </c>
       <c r="V41" s="24">
-        <v>43.32</v>
+        <v>55.87</v>
       </c>
       <c r="W41" s="24">
-        <v>16.2</v>
+        <v>20.7</v>
       </c>
       <c r="X41" s="24">
-        <v>0.127928802269445</v>
+        <v>-0.862688708810516</v>
       </c>
       <c r="Y41" s="24">
-        <v>52.13</v>
+        <v>35.62</v>
       </c>
       <c r="Z41" s="24">
-        <v>43.2</v>
+        <v>34.3</v>
       </c>
       <c r="AA41" s="24">
-        <v>2.15575054212223</v>
+        <v>-0.0147244434040357</v>
       </c>
       <c r="AB41" s="24">
-        <v>86</v>
+        <v>49.75</v>
       </c>
       <c r="AC41" s="24">
-        <v>23.7</v>
+        <v>25.1</v>
       </c>
       <c r="AD41" s="24">
-        <v>-1.35199875526856</v>
+        <v>-1.0151340553326</v>
       </c>
       <c r="AE41" s="24">
-        <v>27.42</v>
+        <v>33.05</v>
       </c>
       <c r="AF41" s="24">
-        <v>16.8</v>
+        <v>19.9</v>
       </c>
       <c r="AG41" s="24">
-        <v>-0.758570629546045</v>
+        <v>0.0974263102507605</v>
       </c>
       <c r="AH41" s="24">
-        <v>37.33</v>
+        <v>51.63</v>
       </c>
       <c r="AI41" s="24">
-        <v>65.603253397427</v>
+        <v>64.1241608736854</v>
       </c>
       <c r="AJ41" s="24">
-        <v>-0.511808024108413</v>
+        <v>-0.807789177743773</v>
       </c>
       <c r="AK41" s="24">
-        <v>41.45</v>
+        <v>36.51</v>
       </c>
       <c r="AL41" s="24">
-        <v>81.13690760166109</v>
+        <v>79.16846144160741</v>
       </c>
       <c r="AM41" s="24">
-        <v>-0.843740353288632</v>
+        <v>-1.56036858609141</v>
       </c>
       <c r="AN41" s="24">
-        <v>35.91</v>
+        <v>23.94</v>
       </c>
       <c r="AO41" s="24">
-        <v>90.5117420429025</v>
+        <v>87.93329496034789</v>
       </c>
       <c r="AP41" s="24">
-        <v>-0.643887316919151</v>
+        <v>-1.84606437967867</v>
       </c>
       <c r="AQ41" s="24">
-        <v>39.25</v>
+        <v>19.17</v>
       </c>
       <c r="AR41" s="24">
-        <v>50.57</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s" s="21">
         <v>124</v>
@@ -7409,129 +7403,129 @@
         <v>2022</v>
       </c>
       <c r="E42" s="23">
-        <v>3.62</v>
+        <v>14.86</v>
       </c>
       <c r="F42" s="24">
-        <v>1.37920200324833</v>
+        <v>-1.28890937356239</v>
       </c>
       <c r="G42" s="24">
-        <v>73.03</v>
+        <v>28.48</v>
       </c>
       <c r="H42" s="24">
-        <v>60.76</v>
+        <v>51.22</v>
       </c>
       <c r="I42" s="24">
-        <v>0.903779575710047</v>
+        <v>-0.383964968816004</v>
       </c>
       <c r="J42" s="24">
-        <v>65.09</v>
+        <v>43.59</v>
       </c>
       <c r="K42" s="24">
-        <v>45.26</v>
+        <v>47.18</v>
       </c>
       <c r="L42" s="24">
-        <v>-0.433848129701976</v>
+        <v>-0.09936532283423651</v>
       </c>
       <c r="M42" s="24">
-        <v>42.75</v>
+        <v>48.34</v>
       </c>
       <c r="N42" s="24">
-        <v>49.08</v>
+        <v>55.29</v>
       </c>
       <c r="O42" s="24">
-        <v>-0.866775429363533</v>
+        <v>0.0281420593949201</v>
       </c>
       <c r="P42" s="24">
-        <v>35.52</v>
+        <v>50.47</v>
       </c>
       <c r="Q42" s="24">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="R42" s="24">
-        <v>-0.008295786592558</v>
+        <v>-0.57359438725686</v>
       </c>
       <c r="S42" s="24">
-        <v>49.86</v>
+        <v>40.42</v>
       </c>
       <c r="T42" s="24">
-        <v>71</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="U42" s="24">
-        <v>0.351258562644683</v>
+        <v>0.791737289078728</v>
       </c>
       <c r="V42" s="24">
-        <v>55.87</v>
+        <v>63.22</v>
       </c>
       <c r="W42" s="24">
-        <v>20.7</v>
+        <v>19.3</v>
       </c>
       <c r="X42" s="24">
-        <v>-0.862688708810516</v>
+        <v>-0.554496594252306</v>
       </c>
       <c r="Y42" s="24">
-        <v>35.62</v>
+        <v>40.76</v>
       </c>
       <c r="Z42" s="24">
-        <v>34.3</v>
+        <v>33.8</v>
       </c>
       <c r="AA42" s="24">
-        <v>-0.0147244434040357</v>
+        <v>-0.136661240343713</v>
       </c>
       <c r="AB42" s="24">
-        <v>49.75</v>
+        <v>47.72</v>
       </c>
       <c r="AC42" s="24">
-        <v>25.1</v>
+        <v>29.2</v>
       </c>
       <c r="AD42" s="24">
-        <v>-1.0151340553326</v>
+        <v>-0.028601719805883</v>
       </c>
       <c r="AE42" s="24">
-        <v>33.05</v>
+        <v>49.52</v>
       </c>
       <c r="AF42" s="24">
-        <v>19.9</v>
+        <v>17.7</v>
       </c>
       <c r="AG42" s="24">
-        <v>0.0974263102507605</v>
+        <v>-0.510055388959876</v>
       </c>
       <c r="AH42" s="24">
-        <v>51.63</v>
+        <v>41.48</v>
       </c>
       <c r="AI42" s="24">
-        <v>64.1241608736854</v>
+        <v>65.0395376743171</v>
       </c>
       <c r="AJ42" s="24">
-        <v>-0.807789177743773</v>
+        <v>-0.6246131579119339</v>
       </c>
       <c r="AK42" s="24">
-        <v>36.51</v>
+        <v>39.57</v>
       </c>
       <c r="AL42" s="24">
-        <v>79.16846144160741</v>
+        <v>82.637798371814</v>
       </c>
       <c r="AM42" s="24">
-        <v>-1.56036858609141</v>
+        <v>-0.297329320021997</v>
       </c>
       <c r="AN42" s="24">
-        <v>23.94</v>
+        <v>45.03</v>
       </c>
       <c r="AO42" s="24">
-        <v>87.93329496034789</v>
+        <v>93.5923373444618</v>
       </c>
       <c r="AP42" s="24">
-        <v>-1.84606437967867</v>
+        <v>0.792411700515082</v>
       </c>
       <c r="AQ42" s="24">
-        <v>19.17</v>
+        <v>63.23</v>
       </c>
       <c r="AR42" s="24">
-        <v>43.98</v>
+        <v>46.29</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="21">
         <v>126</v>
@@ -7543,129 +7537,129 @@
         <v>2022</v>
       </c>
       <c r="E43" s="23">
-        <v>14.86</v>
+        <v>14.51</v>
       </c>
       <c r="F43" s="24">
-        <v>-1.28890937356239</v>
+        <v>-1.20582761360832</v>
       </c>
       <c r="G43" s="24">
-        <v>28.48</v>
+        <v>29.86</v>
       </c>
       <c r="H43" s="24">
-        <v>51.22</v>
+        <v>43.69</v>
       </c>
       <c r="I43" s="24">
-        <v>-0.383964968816004</v>
+        <v>-1.4003922665394</v>
       </c>
       <c r="J43" s="24">
-        <v>43.59</v>
+        <v>26.61</v>
       </c>
       <c r="K43" s="24">
-        <v>47.18</v>
+        <v>53.97</v>
       </c>
       <c r="L43" s="24">
-        <v>-0.09936532283423651</v>
+        <v>1.0835191868699</v>
       </c>
       <c r="M43" s="24">
-        <v>48.34</v>
+        <v>68.09</v>
       </c>
       <c r="N43" s="24">
-        <v>55.29</v>
+        <v>55.81</v>
       </c>
       <c r="O43" s="24">
-        <v>0.0281420593949201</v>
+        <v>0.103078789532504</v>
       </c>
       <c r="P43" s="24">
-        <v>50.47</v>
+        <v>51.72</v>
       </c>
       <c r="Q43" s="24">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="R43" s="24">
-        <v>-0.57359438725686</v>
+        <v>-0.406098505578548</v>
       </c>
       <c r="S43" s="24">
-        <v>40.42</v>
+        <v>43.22</v>
       </c>
       <c r="T43" s="24">
-        <v>74.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="U43" s="24">
-        <v>0.791737289078728</v>
+        <v>0.325348049325033</v>
       </c>
       <c r="V43" s="24">
-        <v>63.22</v>
+        <v>55.43</v>
       </c>
       <c r="W43" s="24">
-        <v>19.3</v>
+        <v>12.9</v>
       </c>
       <c r="X43" s="24">
-        <v>-0.554496594252306</v>
+        <v>0.854381643728084</v>
       </c>
       <c r="Y43" s="24">
-        <v>40.76</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="Z43" s="24">
-        <v>33.8</v>
+        <v>37.4</v>
       </c>
       <c r="AA43" s="24">
-        <v>-0.136661240343713</v>
+        <v>0.741283697621966</v>
       </c>
       <c r="AB43" s="24">
-        <v>47.72</v>
+        <v>62.38</v>
       </c>
       <c r="AC43" s="24">
-        <v>29.2</v>
+        <v>31</v>
       </c>
       <c r="AD43" s="24">
-        <v>-0.028601719805883</v>
+        <v>0.404510037254629</v>
       </c>
       <c r="AE43" s="24">
-        <v>49.52</v>
+        <v>56.76</v>
       </c>
       <c r="AF43" s="24">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="AG43" s="24">
-        <v>-0.510055388959876</v>
+        <v>-0.233927343864132</v>
       </c>
       <c r="AH43" s="24">
-        <v>41.48</v>
+        <v>46.09</v>
       </c>
       <c r="AI43" s="24">
-        <v>65.0395376743171</v>
+        <v>63.0205533596838</v>
       </c>
       <c r="AJ43" s="24">
-        <v>-0.6246131579119339</v>
+        <v>-1.02863203910077</v>
       </c>
       <c r="AK43" s="24">
-        <v>39.57</v>
+        <v>32.82</v>
       </c>
       <c r="AL43" s="24">
-        <v>82.637798371814</v>
+        <v>77.3320158102767</v>
       </c>
       <c r="AM43" s="24">
-        <v>-0.297329320021997</v>
+        <v>-2.2289409931635</v>
       </c>
       <c r="AN43" s="24">
-        <v>45.03</v>
+        <v>12.78</v>
       </c>
       <c r="AO43" s="24">
-        <v>93.5923373444618</v>
+        <v>87.18328444355841</v>
       </c>
       <c r="AP43" s="24">
-        <v>0.792411700515082</v>
+        <v>-2.19574983423508</v>
       </c>
       <c r="AQ43" s="24">
-        <v>63.23</v>
+        <v>13.33</v>
       </c>
       <c r="AR43" s="24">
-        <v>46.29</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="20">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s" s="21">
         <v>128</v>
@@ -7677,129 +7671,129 @@
         <v>2022</v>
       </c>
       <c r="E44" s="23">
-        <v>14.51</v>
+        <v>14.39</v>
       </c>
       <c r="F44" s="24">
-        <v>-1.20582761360832</v>
+        <v>-1.17734243876693</v>
       </c>
       <c r="G44" s="24">
-        <v>29.86</v>
+        <v>30.34</v>
       </c>
       <c r="H44" s="24">
-        <v>43.69</v>
+        <v>52.07</v>
       </c>
       <c r="I44" s="24">
-        <v>-1.4003922665394</v>
+        <v>-0.269228819670601</v>
       </c>
       <c r="J44" s="24">
-        <v>26.61</v>
+        <v>45.5</v>
       </c>
       <c r="K44" s="24">
-        <v>53.97</v>
+        <v>45.31</v>
       </c>
       <c r="L44" s="24">
-        <v>1.0835191868699</v>
+        <v>-0.425137639939795</v>
       </c>
       <c r="M44" s="24">
-        <v>68.09</v>
+        <v>42.9</v>
       </c>
       <c r="N44" s="24">
-        <v>55.81</v>
+        <v>52.9</v>
       </c>
       <c r="O44" s="24">
-        <v>0.103078789532504</v>
+        <v>-0.316278681045129</v>
       </c>
       <c r="P44" s="24">
-        <v>51.72</v>
+        <v>44.72</v>
       </c>
       <c r="Q44" s="24">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="R44" s="24">
-        <v>-0.406098505578548</v>
+        <v>-0.552657402047071</v>
       </c>
       <c r="S44" s="24">
-        <v>43.22</v>
+        <v>40.77</v>
       </c>
       <c r="T44" s="24">
-        <v>70.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="U44" s="24">
-        <v>0.325348049325033</v>
+        <v>0.817647802398376</v>
       </c>
       <c r="V44" s="24">
-        <v>55.43</v>
+        <v>63.65</v>
       </c>
       <c r="W44" s="24">
-        <v>12.9</v>
+        <v>19.8</v>
       </c>
       <c r="X44" s="24">
-        <v>0.854381643728084</v>
+        <v>-0.664565206594524</v>
       </c>
       <c r="Y44" s="24">
-        <v>64.23999999999999</v>
+        <v>38.92</v>
       </c>
       <c r="Z44" s="24">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="AA44" s="24">
-        <v>0.741283697621966</v>
+        <v>0.8388331351737081</v>
       </c>
       <c r="AB44" s="24">
-        <v>62.38</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="AC44" s="24">
-        <v>31</v>
+        <v>26.7</v>
       </c>
       <c r="AD44" s="24">
-        <v>0.404510037254629</v>
+        <v>-0.630145826834371</v>
       </c>
       <c r="AE44" s="24">
-        <v>56.76</v>
+        <v>39.48</v>
       </c>
       <c r="AF44" s="24">
-        <v>18.7</v>
+        <v>15.6</v>
       </c>
       <c r="AG44" s="24">
-        <v>-0.233927343864132</v>
+        <v>-1.08992428366094</v>
       </c>
       <c r="AH44" s="24">
-        <v>46.09</v>
+        <v>31.8</v>
       </c>
       <c r="AI44" s="24">
-        <v>63.0205533596838</v>
+        <v>63.8168777979381</v>
       </c>
       <c r="AJ44" s="24">
-        <v>-1.02863203910077</v>
+        <v>-0.8692795833758939</v>
       </c>
       <c r="AK44" s="24">
-        <v>32.82</v>
+        <v>35.48</v>
       </c>
       <c r="AL44" s="24">
-        <v>77.3320158102767</v>
+        <v>81.9309006518511</v>
       </c>
       <c r="AM44" s="24">
-        <v>-2.2289409931635</v>
+        <v>-0.554680968296444</v>
       </c>
       <c r="AN44" s="24">
-        <v>12.78</v>
+        <v>40.74</v>
       </c>
       <c r="AO44" s="24">
-        <v>87.18328444355841</v>
+        <v>93.0875292512542</v>
       </c>
       <c r="AP44" s="24">
-        <v>-2.19574983423508</v>
+        <v>0.557049604137175</v>
       </c>
       <c r="AQ44" s="24">
-        <v>13.33</v>
+        <v>59.3</v>
       </c>
       <c r="AR44" s="24">
-        <v>43.33</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="20">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="21">
         <v>130</v>
@@ -7811,129 +7805,129 @@
         <v>2022</v>
       </c>
       <c r="E45" s="23">
-        <v>14.39</v>
+        <v>19.59</v>
       </c>
       <c r="F45" s="24">
-        <v>-1.17734243876693</v>
+        <v>-2.41170001522741</v>
       </c>
       <c r="G45" s="24">
-        <v>30.34</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="H45" s="24">
-        <v>52.07</v>
+        <v>40.98</v>
       </c>
       <c r="I45" s="24">
-        <v>-0.269228819670601</v>
+        <v>-1.76619810675592</v>
       </c>
       <c r="J45" s="24">
-        <v>45.5</v>
+        <v>20.5</v>
       </c>
       <c r="K45" s="24">
-        <v>45.31</v>
+        <v>49.73</v>
       </c>
       <c r="L45" s="24">
-        <v>-0.425137639939795</v>
+        <v>0.344869655036979</v>
       </c>
       <c r="M45" s="24">
-        <v>42.9</v>
+        <v>55.76</v>
       </c>
       <c r="N45" s="24">
-        <v>52.9</v>
+        <v>46.96</v>
       </c>
       <c r="O45" s="24">
-        <v>-0.316278681045129</v>
+        <v>-1.1722867137706</v>
       </c>
       <c r="P45" s="24">
-        <v>44.72</v>
+        <v>30.42</v>
       </c>
       <c r="Q45" s="24">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="R45" s="24">
-        <v>-0.552657402047071</v>
+        <v>-0.406098505578548</v>
       </c>
       <c r="S45" s="24">
-        <v>40.77</v>
+        <v>43.22</v>
       </c>
       <c r="T45" s="24">
-        <v>74.59999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="U45" s="24">
-        <v>0.817647802398376</v>
+        <v>0.325348049325033</v>
       </c>
       <c r="V45" s="24">
-        <v>63.65</v>
+        <v>55.43</v>
       </c>
       <c r="W45" s="24">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="X45" s="24">
-        <v>-0.664565206594524</v>
+        <v>-1.03879848855807</v>
       </c>
       <c r="Y45" s="24">
-        <v>38.92</v>
+        <v>32.69</v>
       </c>
       <c r="Z45" s="24">
-        <v>37.8</v>
+        <v>29.5</v>
       </c>
       <c r="AA45" s="24">
-        <v>0.8388331351737081</v>
+        <v>-1.18531769402494</v>
       </c>
       <c r="AB45" s="24">
-        <v>64.01000000000001</v>
+        <v>30.21</v>
       </c>
       <c r="AC45" s="24">
-        <v>26.7</v>
+        <v>29.8</v>
       </c>
       <c r="AD45" s="24">
-        <v>-0.630145826834371</v>
+        <v>0.115768865880955</v>
       </c>
       <c r="AE45" s="24">
-        <v>39.48</v>
+        <v>51.93</v>
       </c>
       <c r="AF45" s="24">
-        <v>15.6</v>
+        <v>19.2</v>
       </c>
       <c r="AG45" s="24">
-        <v>-1.08992428366094</v>
+        <v>-0.09586332131625989</v>
       </c>
       <c r="AH45" s="24">
-        <v>31.8</v>
+        <v>48.4</v>
       </c>
       <c r="AI45" s="24">
-        <v>63.8168777979381</v>
+        <v>69.1413610129671</v>
       </c>
       <c r="AJ45" s="24">
-        <v>-0.8692795833758939</v>
+        <v>0.196202568146166</v>
       </c>
       <c r="AK45" s="24">
-        <v>35.48</v>
+        <v>53.28</v>
       </c>
       <c r="AL45" s="24">
-        <v>81.9309006518511</v>
+        <v>84.9505948519396</v>
       </c>
       <c r="AM45" s="24">
-        <v>-0.554680968296444</v>
+        <v>0.5446623422440841</v>
       </c>
       <c r="AN45" s="24">
-        <v>40.74</v>
+        <v>59.1</v>
       </c>
       <c r="AO45" s="24">
-        <v>93.0875292512542</v>
+        <v>93.4792238987126</v>
       </c>
       <c r="AP45" s="24">
-        <v>0.557049604137175</v>
+        <v>0.739673604438024</v>
       </c>
       <c r="AQ45" s="24">
-        <v>59.3</v>
+        <v>62.35</v>
       </c>
       <c r="AR45" s="24">
-        <v>44.43</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s" s="21">
         <v>132</v>
@@ -7945,129 +7939,129 @@
         <v>2022</v>
       </c>
       <c r="E46" s="23">
-        <v>19.59</v>
+        <v>10.27</v>
       </c>
       <c r="F46" s="24">
-        <v>-2.41170001522741</v>
+        <v>-0.199351435879012</v>
       </c>
       <c r="G46" s="24">
-        <v>9.720000000000001</v>
+        <v>46.67</v>
       </c>
       <c r="H46" s="24">
-        <v>40.98</v>
+        <v>37.72</v>
       </c>
       <c r="I46" s="24">
-        <v>-1.76619810675592</v>
+        <v>-2.20624498465476</v>
       </c>
       <c r="J46" s="24">
-        <v>20.5</v>
+        <v>13.16</v>
       </c>
       <c r="K46" s="24">
-        <v>49.73</v>
+        <v>62.26</v>
       </c>
       <c r="L46" s="24">
-        <v>0.344869655036979</v>
+        <v>2.52771838943946</v>
       </c>
       <c r="M46" s="24">
-        <v>55.76</v>
+        <v>92.20999999999999</v>
       </c>
       <c r="N46" s="24">
-        <v>46.96</v>
+        <v>57.45</v>
       </c>
       <c r="O46" s="24">
-        <v>-1.1722867137706</v>
+        <v>0.33941770765873</v>
       </c>
       <c r="P46" s="24">
-        <v>30.42</v>
+        <v>55.67</v>
       </c>
       <c r="Q46" s="24">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="R46" s="24">
-        <v>-0.406098505578548</v>
+        <v>-0.09204372743171391</v>
       </c>
       <c r="S46" s="24">
-        <v>43.22</v>
+        <v>48.46</v>
       </c>
       <c r="T46" s="24">
-        <v>70.8</v>
+        <v>65.2</v>
       </c>
       <c r="U46" s="24">
-        <v>0.325348049325033</v>
+        <v>-0.400146323625158</v>
       </c>
       <c r="V46" s="24">
-        <v>55.43</v>
+        <v>43.32</v>
       </c>
       <c r="W46" s="24">
-        <v>21.5</v>
+        <v>11</v>
       </c>
       <c r="X46" s="24">
-        <v>-1.03879848855807</v>
+        <v>1.27264237062851</v>
       </c>
       <c r="Y46" s="24">
-        <v>32.69</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="Z46" s="24">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="AA46" s="24">
-        <v>-1.18531769402494</v>
+        <v>-1.28286713157668</v>
       </c>
       <c r="AB46" s="24">
-        <v>30.21</v>
+        <v>28.58</v>
       </c>
       <c r="AC46" s="24">
-        <v>29.8</v>
+        <v>36.7</v>
       </c>
       <c r="AD46" s="24">
-        <v>0.115768865880955</v>
+        <v>1.77603060127958</v>
       </c>
       <c r="AE46" s="24">
-        <v>51.93</v>
+        <v>79.66</v>
       </c>
       <c r="AF46" s="24">
-        <v>19.2</v>
+        <v>23.2</v>
       </c>
       <c r="AG46" s="24">
-        <v>-0.09586332131625989</v>
+        <v>1.00864885906672</v>
       </c>
       <c r="AH46" s="24">
-        <v>48.4</v>
+        <v>66.84</v>
       </c>
       <c r="AI46" s="24">
-        <v>69.1413610129671</v>
+        <v>81.1642605173765</v>
       </c>
       <c r="AJ46" s="24">
-        <v>0.196202568146166</v>
+        <v>2.6021045710548</v>
       </c>
       <c r="AK46" s="24">
-        <v>53.28</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="AL46" s="24">
-        <v>84.9505948519396</v>
+        <v>90.3073556310426</v>
       </c>
       <c r="AM46" s="24">
-        <v>0.5446623422440841</v>
+        <v>2.49483303452815</v>
       </c>
       <c r="AN46" s="24">
-        <v>59.1</v>
+        <v>91.66</v>
       </c>
       <c r="AO46" s="24">
-        <v>93.4792238987126</v>
+        <v>95.540197452817</v>
       </c>
       <c r="AP46" s="24">
-        <v>0.739673604438024</v>
+        <v>1.70058342898386</v>
       </c>
       <c r="AQ46" s="24">
-        <v>62.35</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="AR46" s="24">
-        <v>42.54</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s" s="21">
         <v>134</v>
@@ -8079,129 +8073,129 @@
         <v>2022</v>
       </c>
       <c r="E47" s="23">
-        <v>10.27</v>
+        <v>4.85</v>
       </c>
       <c r="F47" s="24">
-        <v>-0.199351435879012</v>
+        <v>1.08722896112402</v>
       </c>
       <c r="G47" s="24">
-        <v>46.67</v>
+        <v>68.16</v>
       </c>
       <c r="H47" s="24">
-        <v>37.72</v>
+        <v>62.75</v>
       </c>
       <c r="I47" s="24">
-        <v>-2.20624498465476</v>
+        <v>1.17239714841517</v>
       </c>
       <c r="J47" s="24">
-        <v>13.16</v>
+        <v>69.58</v>
       </c>
       <c r="K47" s="24">
-        <v>62.26</v>
+        <v>43.05</v>
       </c>
       <c r="L47" s="24">
-        <v>2.52771838943946</v>
+        <v>-0.818851777190363</v>
       </c>
       <c r="M47" s="24">
-        <v>92.20999999999999</v>
+        <v>36.33</v>
       </c>
       <c r="N47" s="24">
-        <v>57.45</v>
+        <v>58.86</v>
       </c>
       <c r="O47" s="24">
-        <v>0.33941770765873</v>
+        <v>0.5426115336087169</v>
       </c>
       <c r="P47" s="24">
-        <v>55.67</v>
+        <v>59.06</v>
       </c>
       <c r="Q47" s="24">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="R47" s="24">
-        <v>-0.09204372743171391</v>
+        <v>-0.406098505578548</v>
       </c>
       <c r="S47" s="24">
-        <v>48.46</v>
+        <v>43.22</v>
       </c>
       <c r="T47" s="24">
-        <v>65.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="U47" s="24">
-        <v>-0.400146323625158</v>
+        <v>-0.0503543938098866</v>
       </c>
       <c r="V47" s="24">
-        <v>43.32</v>
+        <v>49.16</v>
       </c>
       <c r="W47" s="24">
-        <v>11</v>
+        <v>12.8</v>
       </c>
       <c r="X47" s="24">
-        <v>1.27264237062851</v>
+        <v>0.876395366196528</v>
       </c>
       <c r="Y47" s="24">
-        <v>71.20999999999999</v>
+        <v>64.61</v>
       </c>
       <c r="Z47" s="24">
-        <v>29.1</v>
+        <v>36.5</v>
       </c>
       <c r="AA47" s="24">
-        <v>-1.28286713157668</v>
+        <v>0.521797463130546</v>
       </c>
       <c r="AB47" s="24">
-        <v>28.58</v>
+        <v>58.71</v>
       </c>
       <c r="AC47" s="24">
-        <v>36.7</v>
+        <v>26.8</v>
       </c>
       <c r="AD47" s="24">
-        <v>1.77603060127958</v>
+        <v>-0.606084062553232</v>
       </c>
       <c r="AE47" s="24">
-        <v>79.66</v>
+        <v>39.88</v>
       </c>
       <c r="AF47" s="24">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="AG47" s="24">
-        <v>1.00864885906672</v>
+        <v>1.17432568612416</v>
       </c>
       <c r="AH47" s="24">
-        <v>66.84</v>
+        <v>69.61</v>
       </c>
       <c r="AI47" s="24">
-        <v>81.1642605173765</v>
+        <v>71.2370024390485</v>
       </c>
       <c r="AJ47" s="24">
-        <v>2.6021045710548</v>
+        <v>0.6155613012486441</v>
       </c>
       <c r="AK47" s="24">
-        <v>93.45999999999999</v>
+        <v>60.28</v>
       </c>
       <c r="AL47" s="24">
-        <v>90.3073556310426</v>
+        <v>83.78082137672931</v>
       </c>
       <c r="AM47" s="24">
-        <v>2.49483303452815</v>
+        <v>0.118797152059431</v>
       </c>
       <c r="AN47" s="24">
-        <v>91.66</v>
+        <v>51.98</v>
       </c>
       <c r="AO47" s="24">
-        <v>95.540197452817</v>
+        <v>90.2225077525605</v>
       </c>
       <c r="AP47" s="24">
-        <v>1.70058342898386</v>
+        <v>-0.77874012501641</v>
       </c>
       <c r="AQ47" s="24">
-        <v>78.40000000000001</v>
+        <v>37</v>
       </c>
       <c r="AR47" s="24">
-        <v>62.25</v>
+        <v>54.43</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s" s="21">
         <v>136</v>
@@ -8213,129 +8207,129 @@
         <v>2022</v>
       </c>
       <c r="E48" s="23">
-        <v>4.85</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F48" s="24">
-        <v>1.08722896112402</v>
+        <v>0.0712577251142458</v>
       </c>
       <c r="G48" s="24">
-        <v>68.16</v>
+        <v>51.19</v>
       </c>
       <c r="H48" s="24">
-        <v>62.75</v>
+        <v>49.49</v>
       </c>
       <c r="I48" s="24">
-        <v>1.17239714841517</v>
+        <v>-0.617486778253117</v>
       </c>
       <c r="J48" s="24">
-        <v>69.58</v>
+        <v>39.69</v>
       </c>
       <c r="K48" s="24">
-        <v>43.05</v>
+        <v>53.9</v>
       </c>
       <c r="L48" s="24">
-        <v>-0.818851777190363</v>
+        <v>1.07132450120285</v>
       </c>
       <c r="M48" s="24">
-        <v>36.33</v>
+        <v>67.89</v>
       </c>
       <c r="N48" s="24">
-        <v>58.86</v>
+        <v>59.83</v>
       </c>
       <c r="O48" s="24">
-        <v>0.5426115336087169</v>
+        <v>0.682397357134594</v>
       </c>
       <c r="P48" s="24">
-        <v>59.06</v>
+        <v>61.4</v>
       </c>
       <c r="Q48" s="24">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="R48" s="24">
-        <v>-0.406098505578548</v>
+        <v>-0.133917697851292</v>
       </c>
       <c r="S48" s="24">
-        <v>43.22</v>
+        <v>47.76</v>
       </c>
       <c r="T48" s="24">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="U48" s="24">
-        <v>-0.0503543938098866</v>
+        <v>-0.0633096504697125</v>
       </c>
       <c r="V48" s="24">
-        <v>49.16</v>
+        <v>48.94</v>
       </c>
       <c r="W48" s="24">
-        <v>12.8</v>
+        <v>17.2</v>
       </c>
       <c r="X48" s="24">
-        <v>0.876395366196528</v>
+        <v>-0.0922084224149905</v>
       </c>
       <c r="Y48" s="24">
-        <v>64.61</v>
+        <v>48.46</v>
       </c>
       <c r="Z48" s="24">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="AA48" s="24">
-        <v>0.521797463130546</v>
+        <v>-0.453696912386874</v>
       </c>
       <c r="AB48" s="24">
-        <v>58.71</v>
+        <v>42.42</v>
       </c>
       <c r="AC48" s="24">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="AD48" s="24">
-        <v>-0.606084062553232</v>
+        <v>-0.485775241147534</v>
       </c>
       <c r="AE48" s="24">
-        <v>39.88</v>
+        <v>41.89</v>
       </c>
       <c r="AF48" s="24">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="AG48" s="24">
-        <v>1.17432568612416</v>
+        <v>0.981036054557141</v>
       </c>
       <c r="AH48" s="24">
-        <v>69.61</v>
+        <v>66.38</v>
       </c>
       <c r="AI48" s="24">
-        <v>71.2370024390485</v>
+        <v>69.39665520780289</v>
       </c>
       <c r="AJ48" s="24">
-        <v>0.6155613012486441</v>
+        <v>0.247289480621907</v>
       </c>
       <c r="AK48" s="24">
-        <v>60.28</v>
+        <v>54.13</v>
       </c>
       <c r="AL48" s="24">
-        <v>83.78082137672931</v>
+        <v>83.15133702866299</v>
       </c>
       <c r="AM48" s="24">
-        <v>0.118797152059431</v>
+        <v>-0.11037155221413</v>
       </c>
       <c r="AN48" s="24">
-        <v>51.98</v>
+        <v>48.16</v>
       </c>
       <c r="AO48" s="24">
-        <v>90.2225077525605</v>
+        <v>92.4561939481422</v>
       </c>
       <c r="AP48" s="24">
-        <v>-0.77874012501641</v>
+        <v>0.262695368424254</v>
       </c>
       <c r="AQ48" s="24">
-        <v>37</v>
+        <v>54.39</v>
       </c>
       <c r="AR48" s="24">
-        <v>54.43</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="20">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s" s="21">
         <v>138</v>
@@ -8347,129 +8341,129 @@
         <v>2022</v>
       </c>
       <c r="E49" s="23">
-        <v>9.130000000000001</v>
+        <v>7.03</v>
       </c>
       <c r="F49" s="24">
-        <v>0.0712577251142458</v>
+        <v>0.569748284838669</v>
       </c>
       <c r="G49" s="24">
-        <v>51.19</v>
+        <v>59.51</v>
       </c>
       <c r="H49" s="24">
-        <v>49.49</v>
+        <v>53.74</v>
       </c>
       <c r="I49" s="24">
-        <v>-0.617486778253117</v>
+        <v>-0.0438060325261029</v>
       </c>
       <c r="J49" s="24">
-        <v>39.69</v>
+        <v>49.27</v>
       </c>
       <c r="K49" s="24">
-        <v>53.9</v>
+        <v>50.92</v>
       </c>
       <c r="L49" s="24">
-        <v>1.07132450120285</v>
+        <v>0.552179311376881</v>
       </c>
       <c r="M49" s="24">
-        <v>67.89</v>
+        <v>59.22</v>
       </c>
       <c r="N49" s="24">
-        <v>59.83</v>
+        <v>58.65</v>
       </c>
       <c r="O49" s="24">
-        <v>0.682397357134594</v>
+        <v>0.512348623360846</v>
       </c>
       <c r="P49" s="24">
-        <v>61.4</v>
+        <v>58.56</v>
       </c>
       <c r="Q49" s="24">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="R49" s="24">
-        <v>-0.133917697851292</v>
+        <v>0.473254873232588</v>
       </c>
       <c r="S49" s="24">
-        <v>47.76</v>
+        <v>57.9</v>
       </c>
       <c r="T49" s="24">
-        <v>67.8</v>
+        <v>62.8</v>
       </c>
       <c r="U49" s="24">
-        <v>-0.0633096504697125</v>
+        <v>-0.711072483460954</v>
       </c>
       <c r="V49" s="24">
-        <v>48.94</v>
+        <v>38.13</v>
       </c>
       <c r="W49" s="24">
-        <v>17.2</v>
+        <v>12.5</v>
       </c>
       <c r="X49" s="24">
-        <v>-0.0922084224149905</v>
+        <v>0.942436533601858</v>
       </c>
       <c r="Y49" s="24">
-        <v>48.46</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="Z49" s="24">
-        <v>32.5</v>
+        <v>28.3</v>
       </c>
       <c r="AA49" s="24">
-        <v>-0.453696912386874</v>
+        <v>-1.47796600668017</v>
       </c>
       <c r="AB49" s="24">
-        <v>42.42</v>
+        <v>25.32</v>
       </c>
       <c r="AC49" s="24">
-        <v>27.3</v>
+        <v>36.6</v>
       </c>
       <c r="AD49" s="24">
-        <v>-0.485775241147534</v>
+        <v>1.75196883699844</v>
       </c>
       <c r="AE49" s="24">
-        <v>41.89</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="AF49" s="24">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="AG49" s="24">
-        <v>0.981036054557141</v>
+        <v>0.870584836518843</v>
       </c>
       <c r="AH49" s="24">
-        <v>66.38</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="AI49" s="24">
-        <v>69.39665520780289</v>
+        <v>75.4240942002052</v>
       </c>
       <c r="AJ49" s="24">
-        <v>0.247289480621907</v>
+        <v>1.4534400883777</v>
       </c>
       <c r="AK49" s="24">
-        <v>54.13</v>
+        <v>74.27</v>
       </c>
       <c r="AL49" s="24">
-        <v>83.15133702866299</v>
+        <v>87.7154851994469</v>
       </c>
       <c r="AM49" s="24">
-        <v>-0.11037155221413</v>
+        <v>1.55124231574642</v>
       </c>
       <c r="AN49" s="24">
-        <v>48.16</v>
+        <v>75.91</v>
       </c>
       <c r="AO49" s="24">
-        <v>92.4561939481422</v>
+        <v>93.4623310719018</v>
       </c>
       <c r="AP49" s="24">
-        <v>0.262695368424254</v>
+        <v>0.731797480450637</v>
       </c>
       <c r="AQ49" s="24">
-        <v>54.39</v>
+        <v>62.22</v>
       </c>
       <c r="AR49" s="24">
-        <v>51.75</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="20">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s" s="21">
         <v>140</v>
@@ -8481,129 +8475,129 @@
         <v>2022</v>
       </c>
       <c r="E50" s="23">
-        <v>7.03</v>
+        <v>6.02</v>
       </c>
       <c r="F50" s="24">
-        <v>0.569748284838669</v>
+        <v>0.809498506420416</v>
       </c>
       <c r="G50" s="24">
-        <v>59.51</v>
+        <v>63.52</v>
       </c>
       <c r="H50" s="24">
-        <v>53.74</v>
+        <v>67.06</v>
       </c>
       <c r="I50" s="24">
-        <v>-0.0438060325261029</v>
+        <v>1.7541769164348</v>
       </c>
       <c r="J50" s="24">
-        <v>49.27</v>
+        <v>79.29000000000001</v>
       </c>
       <c r="K50" s="24">
-        <v>50.92</v>
+        <v>39.88</v>
       </c>
       <c r="L50" s="24">
-        <v>0.552179311376881</v>
+        <v>-1.37109682811262</v>
       </c>
       <c r="M50" s="24">
-        <v>59.22</v>
+        <v>27.1</v>
       </c>
       <c r="N50" s="24">
-        <v>58.65</v>
+        <v>58.9</v>
       </c>
       <c r="O50" s="24">
-        <v>0.512348623360846</v>
+        <v>0.548375897465454</v>
       </c>
       <c r="P50" s="24">
-        <v>58.56</v>
+        <v>59.16</v>
       </c>
       <c r="Q50" s="24">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="R50" s="24">
-        <v>0.473254873232588</v>
+        <v>-0.489846446417704</v>
       </c>
       <c r="S50" s="24">
-        <v>57.9</v>
+        <v>41.82</v>
       </c>
       <c r="T50" s="24">
-        <v>62.8</v>
+        <v>73.8</v>
       </c>
       <c r="U50" s="24">
-        <v>-0.711072483460954</v>
+        <v>0.714005749119778</v>
       </c>
       <c r="V50" s="24">
-        <v>38.13</v>
+        <v>61.92</v>
       </c>
       <c r="W50" s="24">
-        <v>12.5</v>
+        <v>20.8</v>
       </c>
       <c r="X50" s="24">
-        <v>0.942436533601858</v>
+        <v>-0.88470243127896</v>
       </c>
       <c r="Y50" s="24">
-        <v>65.70999999999999</v>
+        <v>35.25</v>
       </c>
       <c r="Z50" s="24">
-        <v>28.3</v>
+        <v>44.1</v>
       </c>
       <c r="AA50" s="24">
-        <v>-1.47796600668017</v>
+        <v>2.37523677661365</v>
       </c>
       <c r="AB50" s="24">
-        <v>25.32</v>
+        <v>89.67</v>
       </c>
       <c r="AC50" s="24">
-        <v>36.6</v>
+        <v>22.9</v>
       </c>
       <c r="AD50" s="24">
-        <v>1.75196883699844</v>
+        <v>-1.54449286951767</v>
       </c>
       <c r="AE50" s="24">
-        <v>79.26000000000001</v>
+        <v>24.21</v>
       </c>
       <c r="AF50" s="24">
-        <v>22.7</v>
+        <v>12.2</v>
       </c>
       <c r="AG50" s="24">
-        <v>0.870584836518843</v>
+        <v>-2.02875963698647</v>
       </c>
       <c r="AH50" s="24">
-        <v>64.54000000000001</v>
+        <v>16.12</v>
       </c>
       <c r="AI50" s="24">
-        <v>75.4240942002052</v>
+        <v>57.888374080655</v>
       </c>
       <c r="AJ50" s="24">
-        <v>1.4534400883777</v>
+        <v>-2.05563225665837</v>
       </c>
       <c r="AK50" s="24">
-        <v>74.27</v>
+        <v>15.67</v>
       </c>
       <c r="AL50" s="24">
-        <v>87.7154851994469</v>
+        <v>80.6543937383325</v>
       </c>
       <c r="AM50" s="24">
-        <v>1.55124231574642</v>
+        <v>-1.01940330216531</v>
       </c>
       <c r="AN50" s="24">
-        <v>75.91</v>
+        <v>32.98</v>
       </c>
       <c r="AO50" s="24">
-        <v>93.4623310719018</v>
+        <v>93.3684631994395</v>
       </c>
       <c r="AP50" s="24">
-        <v>0.731797480450637</v>
+        <v>0.6880324546070939</v>
       </c>
       <c r="AQ50" s="24">
-        <v>62.22</v>
+        <v>61.49</v>
       </c>
       <c r="AR50" s="24">
-        <v>59.22</v>
+        <v>46.78</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s" s="21">
         <v>142</v>
@@ -8615,129 +8609,129 @@
         <v>2022</v>
       </c>
       <c r="E51" s="23">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="F51" s="24">
-        <v>0.809498506420416</v>
+        <v>0.821367329270997</v>
       </c>
       <c r="G51" s="24">
-        <v>63.52</v>
+        <v>63.72</v>
       </c>
       <c r="H51" s="24">
-        <v>67.06</v>
+        <v>55.83</v>
       </c>
       <c r="I51" s="24">
-        <v>1.7541769164348</v>
+        <v>0.238309910666711</v>
       </c>
       <c r="J51" s="24">
-        <v>79.29000000000001</v>
+        <v>53.98</v>
       </c>
       <c r="K51" s="24">
-        <v>39.88</v>
+        <v>50.24</v>
       </c>
       <c r="L51" s="24">
-        <v>-1.37109682811262</v>
+        <v>0.433716650611223</v>
       </c>
       <c r="M51" s="24">
-        <v>27.1</v>
+        <v>57.24</v>
       </c>
       <c r="N51" s="24">
-        <v>58.9</v>
+        <v>59.04</v>
       </c>
       <c r="O51" s="24">
-        <v>0.548375897465454</v>
+        <v>0.568551170964034</v>
       </c>
       <c r="P51" s="24">
-        <v>59.16</v>
+        <v>59.49</v>
       </c>
       <c r="Q51" s="24">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="R51" s="24">
-        <v>-0.489846446417704</v>
+        <v>-0.154854683061081</v>
       </c>
       <c r="S51" s="24">
-        <v>41.82</v>
+        <v>47.41</v>
       </c>
       <c r="T51" s="24">
-        <v>73.8</v>
+        <v>69.5</v>
       </c>
       <c r="U51" s="24">
-        <v>0.714005749119778</v>
+        <v>0.15692971274731</v>
       </c>
       <c r="V51" s="24">
-        <v>61.92</v>
+        <v>52.62</v>
       </c>
       <c r="W51" s="24">
-        <v>20.8</v>
+        <v>12.8</v>
       </c>
       <c r="X51" s="24">
-        <v>-0.88470243127896</v>
+        <v>0.876395366196528</v>
       </c>
       <c r="Y51" s="24">
-        <v>35.25</v>
+        <v>64.61</v>
       </c>
       <c r="Z51" s="24">
-        <v>44.1</v>
+        <v>39.3</v>
       </c>
       <c r="AA51" s="24">
-        <v>2.37523677661365</v>
+        <v>1.20464352599274</v>
       </c>
       <c r="AB51" s="24">
-        <v>89.67</v>
+        <v>70.12</v>
       </c>
       <c r="AC51" s="24">
-        <v>22.9</v>
+        <v>29.9</v>
       </c>
       <c r="AD51" s="24">
-        <v>-1.54449286951767</v>
+        <v>0.139830630162094</v>
       </c>
       <c r="AE51" s="24">
-        <v>24.21</v>
+        <v>52.34</v>
       </c>
       <c r="AF51" s="24">
-        <v>12.2</v>
+        <v>18.1</v>
       </c>
       <c r="AG51" s="24">
-        <v>-2.02875963698647</v>
+        <v>-0.399604170921577</v>
       </c>
       <c r="AH51" s="24">
-        <v>16.12</v>
+        <v>43.33</v>
       </c>
       <c r="AI51" s="24">
-        <v>57.888374080655</v>
+        <v>68.17760821670539</v>
       </c>
       <c r="AJ51" s="24">
-        <v>-2.05563225665837</v>
+        <v>0.003346029506345</v>
       </c>
       <c r="AK51" s="24">
-        <v>15.67</v>
+        <v>50.06</v>
       </c>
       <c r="AL51" s="24">
-        <v>80.6543937383325</v>
+        <v>83.0500235817762</v>
       </c>
       <c r="AM51" s="24">
-        <v>-1.01940330216531</v>
+        <v>-0.147255505595745</v>
       </c>
       <c r="AN51" s="24">
-        <v>32.98</v>
+        <v>47.54</v>
       </c>
       <c r="AO51" s="24">
-        <v>93.3684631994395</v>
+        <v>91.76959719007149</v>
       </c>
       <c r="AP51" s="24">
-        <v>0.6880324546070939</v>
+        <v>-0.057424008662156</v>
       </c>
       <c r="AQ51" s="24">
-        <v>61.49</v>
+        <v>49.04</v>
       </c>
       <c r="AR51" s="24">
-        <v>46.78</v>
+        <v>54.73</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="20">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s" s="21">
         <v>144</v>
@@ -8749,257 +8743,123 @@
         <v>2022</v>
       </c>
       <c r="E52" s="23">
-        <v>5.97</v>
+        <v>15.41</v>
       </c>
       <c r="F52" s="24">
-        <v>0.821367329270997</v>
+        <v>-1.41946642491879</v>
       </c>
       <c r="G52" s="24">
-        <v>63.72</v>
+        <v>26.29</v>
       </c>
       <c r="H52" s="24">
-        <v>55.83</v>
+        <v>42.65</v>
       </c>
       <c r="I52" s="24">
-        <v>0.238309910666711</v>
+        <v>-1.54077531961142</v>
       </c>
       <c r="J52" s="24">
-        <v>53.98</v>
+        <v>24.27</v>
       </c>
       <c r="K52" s="24">
-        <v>50.24</v>
+        <v>54.03</v>
       </c>
       <c r="L52" s="24">
-        <v>0.433716650611223</v>
+        <v>1.09397177458452</v>
       </c>
       <c r="M52" s="24">
-        <v>57.24</v>
+        <v>68.27</v>
       </c>
       <c r="N52" s="24">
-        <v>59.04</v>
+        <v>57.31</v>
       </c>
       <c r="O52" s="24">
-        <v>0.568551170964034</v>
+        <v>0.31924243416015</v>
       </c>
       <c r="P52" s="24">
-        <v>59.49</v>
+        <v>55.33</v>
       </c>
       <c r="Q52" s="24">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="R52" s="24">
-        <v>-0.154854683061081</v>
+        <v>-0.447972475998126</v>
       </c>
       <c r="S52" s="24">
-        <v>47.41</v>
+        <v>42.52</v>
       </c>
       <c r="T52" s="24">
-        <v>69.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="U52" s="24">
-        <v>0.15692971274731</v>
+        <v>0.726961005779604</v>
       </c>
       <c r="V52" s="24">
-        <v>52.62</v>
+        <v>62.14</v>
       </c>
       <c r="W52" s="24">
-        <v>12.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X52" s="24">
-        <v>0.876395366196528</v>
+        <v>1.6688893750605</v>
       </c>
       <c r="Y52" s="24">
-        <v>64.61</v>
+        <v>77.81</v>
       </c>
       <c r="Z52" s="24">
-        <v>39.3</v>
+        <v>35.3</v>
       </c>
       <c r="AA52" s="24">
-        <v>1.20464352599274</v>
+        <v>0.22914915047532</v>
       </c>
       <c r="AB52" s="24">
-        <v>70.12</v>
+        <v>53.83</v>
       </c>
       <c r="AC52" s="24">
-        <v>29.9</v>
+        <v>36.7</v>
       </c>
       <c r="AD52" s="24">
-        <v>0.139830630162094</v>
+        <v>1.77603060127958</v>
       </c>
       <c r="AE52" s="24">
-        <v>52.34</v>
+        <v>79.66</v>
       </c>
       <c r="AF52" s="24">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="AG52" s="24">
-        <v>-0.399604170921577</v>
+        <v>-0.233927343864132</v>
       </c>
       <c r="AH52" s="24">
-        <v>43.33</v>
+        <v>46.09</v>
       </c>
       <c r="AI52" s="24">
-        <v>68.17760821670539</v>
+        <v>73.4813906487726</v>
       </c>
       <c r="AJ52" s="24">
-        <v>0.003346029506345</v>
+        <v>1.06468574806776</v>
       </c>
       <c r="AK52" s="24">
-        <v>50.06</v>
+        <v>67.78</v>
       </c>
       <c r="AL52" s="24">
-        <v>83.0500235817762</v>
+        <v>88.4017984876354</v>
       </c>
       <c r="AM52" s="24">
-        <v>-0.147255505595745</v>
+        <v>1.80110004050643</v>
       </c>
       <c r="AN52" s="24">
-        <v>47.54</v>
+        <v>80.08</v>
       </c>
       <c r="AO52" s="24">
-        <v>91.76959719007149</v>
+        <v>93.7488580899434</v>
       </c>
       <c r="AP52" s="24">
-        <v>-0.057424008662156</v>
+        <v>0.865388047920891</v>
       </c>
       <c r="AQ52" s="24">
-        <v>49.04</v>
+        <v>64.45</v>
       </c>
       <c r="AR52" s="24">
-        <v>54.73</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="20">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s" s="21">
-        <v>146</v>
-      </c>
-      <c r="C53" t="s" s="21">
-        <v>147</v>
-      </c>
-      <c r="D53" s="22">
-        <v>2022</v>
-      </c>
-      <c r="E53" s="23">
-        <v>15.41</v>
-      </c>
-      <c r="F53" s="24">
-        <v>-1.41946642491879</v>
-      </c>
-      <c r="G53" s="24">
-        <v>26.29</v>
-      </c>
-      <c r="H53" s="24">
-        <v>42.65</v>
-      </c>
-      <c r="I53" s="24">
-        <v>-1.54077531961142</v>
-      </c>
-      <c r="J53" s="24">
-        <v>24.27</v>
-      </c>
-      <c r="K53" s="24">
-        <v>54.03</v>
-      </c>
-      <c r="L53" s="24">
-        <v>1.09397177458452</v>
-      </c>
-      <c r="M53" s="24">
-        <v>68.27</v>
-      </c>
-      <c r="N53" s="24">
-        <v>57.31</v>
-      </c>
-      <c r="O53" s="24">
-        <v>0.31924243416015</v>
-      </c>
-      <c r="P53" s="24">
-        <v>55.33</v>
-      </c>
-      <c r="Q53" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="R53" s="24">
-        <v>-0.447972475998126</v>
-      </c>
-      <c r="S53" s="24">
-        <v>42.52</v>
-      </c>
-      <c r="T53" s="24">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="U53" s="24">
-        <v>0.726961005779604</v>
-      </c>
-      <c r="V53" s="24">
-        <v>62.14</v>
-      </c>
-      <c r="W53" s="24">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X53" s="24">
-        <v>1.6688893750605</v>
-      </c>
-      <c r="Y53" s="24">
-        <v>77.81</v>
-      </c>
-      <c r="Z53" s="24">
-        <v>35.3</v>
-      </c>
-      <c r="AA53" s="24">
-        <v>0.22914915047532</v>
-      </c>
-      <c r="AB53" s="24">
-        <v>53.83</v>
-      </c>
-      <c r="AC53" s="24">
-        <v>36.7</v>
-      </c>
-      <c r="AD53" s="24">
-        <v>1.77603060127958</v>
-      </c>
-      <c r="AE53" s="24">
-        <v>79.66</v>
-      </c>
-      <c r="AF53" s="24">
-        <v>18.7</v>
-      </c>
-      <c r="AG53" s="24">
-        <v>-0.233927343864132</v>
-      </c>
-      <c r="AH53" s="24">
-        <v>46.09</v>
-      </c>
-      <c r="AI53" s="24">
-        <v>73.4813906487726</v>
-      </c>
-      <c r="AJ53" s="24">
-        <v>1.06468574806776</v>
-      </c>
-      <c r="AK53" s="24">
-        <v>67.78</v>
-      </c>
-      <c r="AL53" s="24">
-        <v>88.4017984876354</v>
-      </c>
-      <c r="AM53" s="24">
-        <v>1.80110004050643</v>
-      </c>
-      <c r="AN53" s="24">
-        <v>80.08</v>
-      </c>
-      <c r="AO53" s="24">
-        <v>93.7488580899434</v>
-      </c>
-      <c r="AP53" s="24">
-        <v>0.865388047920891</v>
-      </c>
-      <c r="AQ53" s="24">
-        <v>64.45</v>
-      </c>
-      <c r="AR53" s="24">
         <v>57.58</v>
       </c>
     </row>
